--- a/documents/Таблицы с результатами.xlsx
+++ b/documents/Таблицы с результатами.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\Documents\Projects\SER\SER_knn\models\classification_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\emotion_recognition\knn_svm\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23793606-3B21-486A-AA97-9F74EC0EECB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F19B8C6F-F3CA-45D6-B1EF-20BDE6D7B748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="910" yWindow="-110" windowWidth="18400" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная (вар 1)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="38">
   <si>
     <t>precision</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Набор данных</t>
+  </si>
+  <si>
+    <t>Ср. Accuracy:</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1001,19 +1004,6 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1027,19 +1017,6 @@
       </right>
       <top/>
       <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1428,6 +1405,186 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1480,7 +1637,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1513,12 +1670,12 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,15 +1683,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="35" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="35" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1564,15 +1721,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="35" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="35" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="35" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="35" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="35" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1584,157 +1741,216 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2098,63 +2314,63 @@
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.54296875" customWidth="1"/>
-    <col min="5" max="14" width="6.7265625" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="14" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="4:15" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="4:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="33"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-    </row>
-    <row r="3" spans="4:15" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="90" t="s">
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+    </row>
+    <row r="3" spans="4:15" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="81" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="126" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="127" t="s">
+      <c r="K3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="98" t="s">
+      <c r="L3" s="72"/>
+      <c r="M3" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="99"/>
-    </row>
-    <row r="4" spans="4:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="66"/>
-      <c r="E4" s="93"/>
+      <c r="N3" s="96"/>
+    </row>
+    <row r="4" spans="4:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="74"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
@@ -2167,8 +2383,8 @@
       <c r="I4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="125" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="14" t="s">
@@ -2181,8 +2397,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="66"/>
+    <row r="5" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="74"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
@@ -2198,14 +2414,14 @@
       <c r="I5" s="19">
         <v>0.74213836477987405</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="70"/>
-    </row>
-    <row r="6" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="66"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="94"/>
+    </row>
+    <row r="6" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="74"/>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
@@ -2221,14 +2437,14 @@
       <c r="I6" s="20">
         <v>0.41823899371069101</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="71"/>
-    </row>
-    <row r="7" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="66"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="81"/>
+    </row>
+    <row r="7" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="74"/>
       <c r="E7" s="11" t="s">
         <v>5</v>
       </c>
@@ -2244,14 +2460,14 @@
       <c r="I7" s="20">
         <v>0.43081761006289299</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="71"/>
-    </row>
-    <row r="8" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="66"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="81"/>
+    </row>
+    <row r="8" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="74"/>
       <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2267,14 +2483,14 @@
       <c r="I8" s="20">
         <v>0.47484276729559699</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="71"/>
-    </row>
-    <row r="9" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="66"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="81"/>
+    </row>
+    <row r="9" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="74"/>
       <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2306,8 +2522,8 @@
         <v>0.90322580645161199</v>
       </c>
     </row>
-    <row r="10" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="66"/>
+    <row r="10" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="74"/>
       <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
@@ -2339,8 +2555,8 @@
         <v>0.35932203389830503</v>
       </c>
     </row>
-    <row r="11" spans="4:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="91"/>
+    <row r="11" spans="4:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="75"/>
       <c r="E11" s="26" t="s">
         <v>21</v>
       </c>
@@ -2372,8 +2588,8 @@
         <v>0.63127392017495898</v>
       </c>
     </row>
-    <row r="12" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="66" t="s">
+    <row r="12" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="74" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -2391,15 +2607,15 @@
       <c r="I12" s="19">
         <v>0.59375</v>
       </c>
-      <c r="J12" s="83"/>
+      <c r="J12" s="82"/>
       <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="70"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="94"/>
       <c r="O12" s="33"/>
     </row>
-    <row r="13" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="67"/>
+    <row r="13" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="100"/>
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
@@ -2415,14 +2631,14 @@
       <c r="I13" s="20">
         <v>0.75</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="71"/>
-    </row>
-    <row r="14" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="67"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="81"/>
+    </row>
+    <row r="14" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="100"/>
       <c r="E14" s="11" t="s">
         <v>4</v>
       </c>
@@ -2438,14 +2654,14 @@
       <c r="I14" s="20">
         <v>0.90909090909090895</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="71"/>
-    </row>
-    <row r="15" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="67"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="81"/>
+    </row>
+    <row r="15" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="100"/>
       <c r="E15" s="11" t="s">
         <v>5</v>
       </c>
@@ -2461,14 +2677,14 @@
       <c r="I15" s="20">
         <v>0.82352941176470495</v>
       </c>
-      <c r="J15" s="73"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="71"/>
-    </row>
-    <row r="16" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="67"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="81"/>
+    </row>
+    <row r="16" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="100"/>
       <c r="E16" s="11" t="s">
         <v>6</v>
       </c>
@@ -2484,14 +2700,14 @@
       <c r="I16" s="20">
         <v>0.5</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="71"/>
-    </row>
-    <row r="17" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="67"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="81"/>
+    </row>
+    <row r="17" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="100"/>
       <c r="E17" s="11" t="s">
         <v>7</v>
       </c>
@@ -2523,8 +2739,8 @@
         <v>0.85526315789473595</v>
       </c>
     </row>
-    <row r="18" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="67"/>
+    <row r="18" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="100"/>
       <c r="E18" s="11" t="s">
         <v>8</v>
       </c>
@@ -2556,8 +2772,8 @@
         <v>0.75862068965517204</v>
       </c>
     </row>
-    <row r="19" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="67"/>
+    <row r="19" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="100"/>
       <c r="E19" s="45" t="s">
         <v>21</v>
       </c>
@@ -2589,8 +2805,8 @@
         <v>0.806941923774954</v>
       </c>
     </row>
-    <row r="20" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="68" t="s">
+    <row r="20" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="101" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2608,14 +2824,14 @@
       <c r="I20" s="21">
         <v>0.43272727272727202</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="78"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="93"/>
       <c r="N20" s="80"/>
     </row>
-    <row r="21" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="67"/>
+    <row r="21" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="100"/>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
@@ -2631,14 +2847,14 @@
       <c r="I21" s="20">
         <v>0.36758893280632399</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="71"/>
-    </row>
-    <row r="22" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="67"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="81"/>
+    </row>
+    <row r="22" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="100"/>
       <c r="E22" s="11" t="s">
         <v>13</v>
       </c>
@@ -2654,14 +2870,14 @@
       <c r="I22" s="20">
         <v>0.57111597374179401</v>
       </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="71"/>
-    </row>
-    <row r="23" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="67"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="81"/>
+    </row>
+    <row r="23" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="100"/>
       <c r="E23" s="11" t="s">
         <v>6</v>
       </c>
@@ -2677,14 +2893,14 @@
       <c r="I23" s="20">
         <v>5.4421768707482901E-2</v>
       </c>
-      <c r="J23" s="73"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="71"/>
-    </row>
-    <row r="24" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="67"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="81"/>
+    </row>
+    <row r="24" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="100"/>
       <c r="E24" s="11" t="s">
         <v>7</v>
       </c>
@@ -2716,8 +2932,8 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="25" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="67"/>
+    <row r="25" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="100"/>
       <c r="E25" s="11" t="s">
         <v>8</v>
       </c>
@@ -2749,8 +2965,8 @@
         <v>0.60048426150121004</v>
       </c>
     </row>
-    <row r="26" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="69"/>
+    <row r="26" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="102"/>
       <c r="E26" s="26" t="s">
         <v>21</v>
       </c>
@@ -2782,8 +2998,8 @@
         <v>0.67274213075060496</v>
       </c>
     </row>
-    <row r="27" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="68" t="s">
+    <row r="27" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="101" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -2801,15 +3017,15 @@
       <c r="I27" s="21">
         <v>0.70833333333333304</v>
       </c>
-      <c r="J27" s="72"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="78"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="93"/>
       <c r="N27" s="80"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="67"/>
+    <row r="28" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="100"/>
       <c r="E28" s="11" t="s">
         <v>15</v>
       </c>
@@ -2825,14 +3041,14 @@
       <c r="I28" s="20">
         <v>0.77083333333333304</v>
       </c>
-      <c r="J28" s="73"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="71"/>
-    </row>
-    <row r="29" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="67"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="81"/>
+    </row>
+    <row r="29" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="100"/>
       <c r="E29" s="11" t="s">
         <v>4</v>
       </c>
@@ -2848,14 +3064,14 @@
       <c r="I29" s="20">
         <v>0.64583333333333304</v>
       </c>
-      <c r="J29" s="73"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="71"/>
-    </row>
-    <row r="30" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="67"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="81"/>
+    </row>
+    <row r="30" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="100"/>
       <c r="E30" s="11" t="s">
         <v>5</v>
       </c>
@@ -2871,14 +3087,14 @@
       <c r="I30" s="20">
         <v>0.6875</v>
       </c>
-      <c r="J30" s="73"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="71"/>
-    </row>
-    <row r="31" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="67"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="81"/>
+    </row>
+    <row r="31" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="100"/>
       <c r="E31" s="11" t="s">
         <v>6</v>
       </c>
@@ -2894,14 +3110,14 @@
       <c r="I31" s="20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="71"/>
-    </row>
-    <row r="32" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="67"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="81"/>
+    </row>
+    <row r="32" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="100"/>
       <c r="E32" s="11" t="s">
         <v>7</v>
       </c>
@@ -2917,14 +3133,14 @@
       <c r="I32" s="20">
         <v>0.33333333333333298</v>
       </c>
-      <c r="J32" s="73"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="71"/>
-    </row>
-    <row r="33" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="67"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="81"/>
+    </row>
+    <row r="33" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="100"/>
       <c r="E33" s="11" t="s">
         <v>8</v>
       </c>
@@ -2956,8 +3172,8 @@
         <v>0.72916666666666596</v>
       </c>
     </row>
-    <row r="34" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="67"/>
+    <row r="34" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="100"/>
       <c r="E34" s="11" t="s">
         <v>16</v>
       </c>
@@ -2989,8 +3205,8 @@
         <v>0.702380952380952</v>
       </c>
     </row>
-    <row r="35" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="69"/>
+    <row r="35" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="102"/>
       <c r="E35" s="26" t="s">
         <v>21</v>
       </c>
@@ -3022,8 +3238,8 @@
         <v>0.71577380952380898</v>
       </c>
     </row>
-    <row r="36" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="67" t="s">
+    <row r="36" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -3041,14 +3257,14 @@
       <c r="I36" s="19">
         <v>0.8</v>
       </c>
-      <c r="J36" s="83"/>
+      <c r="J36" s="82"/>
       <c r="K36" s="84"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="70"/>
-    </row>
-    <row r="37" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="67"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="94"/>
+    </row>
+    <row r="37" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="100"/>
       <c r="E37" s="11" t="s">
         <v>4</v>
       </c>
@@ -3064,14 +3280,14 @@
       <c r="I37" s="20">
         <v>0.73333333333333295</v>
       </c>
-      <c r="J37" s="73"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="71"/>
-    </row>
-    <row r="38" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="67"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="81"/>
+    </row>
+    <row r="38" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="100"/>
       <c r="E38" s="11" t="s">
         <v>5</v>
       </c>
@@ -3087,14 +3303,14 @@
       <c r="I38" s="20">
         <v>0.4</v>
       </c>
-      <c r="J38" s="73"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="71"/>
-    </row>
-    <row r="39" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="67"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="81"/>
+    </row>
+    <row r="39" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="100"/>
       <c r="E39" s="11" t="s">
         <v>6</v>
       </c>
@@ -3110,14 +3326,14 @@
       <c r="I39" s="20">
         <v>0.53333333333333299</v>
       </c>
-      <c r="J39" s="73"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="71"/>
-    </row>
-    <row r="40" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="67"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="81"/>
+    </row>
+    <row r="40" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="100"/>
       <c r="E40" s="11" t="s">
         <v>7</v>
       </c>
@@ -3133,14 +3349,14 @@
       <c r="I40" s="20">
         <v>0.83333333333333304</v>
       </c>
-      <c r="J40" s="73"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="71"/>
-    </row>
-    <row r="41" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="67"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="81"/>
+    </row>
+    <row r="41" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="100"/>
       <c r="E41" s="11" t="s">
         <v>8</v>
       </c>
@@ -3172,8 +3388,8 @@
         <v>0.76666666666666605</v>
       </c>
     </row>
-    <row r="42" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="67"/>
+    <row r="42" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="100"/>
       <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
@@ -3205,8 +3421,8 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D43" s="67"/>
+    <row r="43" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="100"/>
       <c r="E43" s="45" t="s">
         <v>21</v>
       </c>
@@ -3238,8 +3454,8 @@
         <v>0.65833333333333299</v>
       </c>
     </row>
-    <row r="44" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="68" t="s">
+    <row r="44" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="101" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -3257,15 +3473,15 @@
       <c r="I44" s="21">
         <v>1</v>
       </c>
-      <c r="J44" s="72"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="78"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="93"/>
       <c r="N44" s="80"/>
       <c r="O44" s="16"/>
     </row>
-    <row r="45" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="67"/>
+    <row r="45" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="100"/>
       <c r="E45" s="11" t="s">
         <v>4</v>
       </c>
@@ -3281,14 +3497,14 @@
       <c r="I45" s="20">
         <v>0.98</v>
       </c>
-      <c r="J45" s="73"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="71"/>
-    </row>
-    <row r="46" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="67"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="81"/>
+    </row>
+    <row r="46" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="100"/>
       <c r="E46" s="11" t="s">
         <v>5</v>
       </c>
@@ -3304,14 +3520,14 @@
       <c r="I46" s="20">
         <v>0.99</v>
       </c>
-      <c r="J46" s="73"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="71"/>
-    </row>
-    <row r="47" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="67"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="81"/>
+    </row>
+    <row r="47" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="100"/>
       <c r="E47" s="11" t="s">
         <v>6</v>
       </c>
@@ -3327,14 +3543,14 @@
       <c r="I47" s="20">
         <v>0.95</v>
       </c>
-      <c r="J47" s="73"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="71"/>
-    </row>
-    <row r="48" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="67"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="81"/>
+    </row>
+    <row r="48" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="100"/>
       <c r="E48" s="11" t="s">
         <v>7</v>
       </c>
@@ -3350,14 +3566,14 @@
       <c r="I48" s="20">
         <v>1</v>
       </c>
-      <c r="J48" s="73"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="71"/>
-    </row>
-    <row r="49" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="67"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="81"/>
+    </row>
+    <row r="49" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="100"/>
       <c r="E49" s="11" t="s">
         <v>8</v>
       </c>
@@ -3389,8 +3605,8 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="50" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="67"/>
+    <row r="50" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="100"/>
       <c r="E50" s="11" t="s">
         <v>16</v>
       </c>
@@ -3422,8 +3638,8 @@
         <v>0.956666666666666</v>
       </c>
     </row>
-    <row r="51" spans="4:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D51" s="69"/>
+    <row r="51" spans="4:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="102"/>
       <c r="E51" s="26" t="s">
         <v>21</v>
       </c>
@@ -3455,8 +3671,8 @@
         <v>0.96583333333333299</v>
       </c>
     </row>
-    <row r="52" spans="4:14" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="68" t="s">
+    <row r="52" spans="4:14" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="101" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="12" t="s">
@@ -3474,14 +3690,14 @@
       <c r="I52" s="21">
         <v>0.73377483443708602</v>
       </c>
-      <c r="J52" s="72"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="78"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="93"/>
       <c r="N52" s="80"/>
     </row>
-    <row r="53" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="67"/>
+    <row r="53" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="100"/>
       <c r="E53" s="11" t="s">
         <v>4</v>
       </c>
@@ -3497,14 +3713,14 @@
       <c r="I53" s="20">
         <v>0.54054054054054002</v>
       </c>
-      <c r="J53" s="73"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="71"/>
-    </row>
-    <row r="54" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="67"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="81"/>
+    </row>
+    <row r="54" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="100"/>
       <c r="E54" s="11" t="s">
         <v>5</v>
       </c>
@@ -3520,14 +3736,14 @@
       <c r="I54" s="20">
         <v>0.51143451143451102</v>
       </c>
-      <c r="J54" s="73"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="71"/>
-    </row>
-    <row r="55" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="67"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="81"/>
+    </row>
+    <row r="55" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="100"/>
       <c r="E55" s="11" t="s">
         <v>6</v>
       </c>
@@ -3543,14 +3759,14 @@
       <c r="I55" s="20">
         <v>0.37420382165604998</v>
       </c>
-      <c r="J55" s="73"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="71"/>
-    </row>
-    <row r="56" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="67"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="81"/>
+    </row>
+    <row r="56" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="100"/>
       <c r="E56" s="11" t="s">
         <v>7</v>
       </c>
@@ -3582,8 +3798,8 @@
         <v>0.81662675333561396</v>
       </c>
     </row>
-    <row r="57" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="67"/>
+    <row r="57" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="100"/>
       <c r="E57" s="11" t="s">
         <v>8</v>
       </c>
@@ -3615,8 +3831,8 @@
         <v>0.449305198147195</v>
       </c>
     </row>
-    <row r="58" spans="4:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D58" s="69"/>
+    <row r="58" spans="4:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="102"/>
       <c r="E58" s="26" t="s">
         <v>21</v>
       </c>
@@ -3648,69 +3864,37 @@
         <v>0.63296597574140401</v>
       </c>
     </row>
-    <row r="59" spans="4:14" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:14" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D59" s="44"/>
     </row>
-    <row r="60" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" s="44"/>
     </row>
-    <row r="61" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D61" s="44"/>
     </row>
-    <row r="62" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D62" s="44"/>
     </row>
-    <row r="63" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D63" s="44"/>
     </row>
-    <row r="64" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D64" s="33"/>
     </row>
-    <row r="65" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" s="33"/>
     </row>
-    <row r="66" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D66" s="33"/>
     </row>
-    <row r="67" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="N27:N32"/>
-    <mergeCell ref="J36:J40"/>
-    <mergeCell ref="K36:K40"/>
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="M36:M40"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="K27:K32"/>
-    <mergeCell ref="L27:L32"/>
-    <mergeCell ref="M27:M32"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="M12:M16"/>
-    <mergeCell ref="N12:N16"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="J20:J23"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
@@ -3727,7 +3911,39 @@
     <mergeCell ref="M44:M48"/>
     <mergeCell ref="N44:N48"/>
     <mergeCell ref="N52:N55"/>
-    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="M12:M16"/>
+    <mergeCell ref="N12:N16"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="K27:K32"/>
+    <mergeCell ref="L27:L32"/>
+    <mergeCell ref="M27:M32"/>
+    <mergeCell ref="N27:N32"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="K36:K40"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="M36:M40"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3742,53 +3958,53 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="12" width="6.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="12" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="4:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="94" t="s">
+    <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="4:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="114" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D7" s="95"/>
-      <c r="E7" s="118" t="s">
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="111"/>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="104"/>
+      <c r="E7" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98" t="s">
+      <c r="F7" s="113"/>
+      <c r="G7" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="115" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98" t="s">
+      <c r="J7" s="113"/>
+      <c r="K7" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="99"/>
-    </row>
-    <row r="8" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="96"/>
-      <c r="E8" s="119" t="s">
+      <c r="L7" s="96"/>
+    </row>
+    <row r="8" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="105"/>
+      <c r="E8" s="64" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="23" t="s">
@@ -3813,11 +4029,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="65">
         <v>0.479106242629185</v>
       </c>
       <c r="F9" s="61">
@@ -3842,11 +4058,11 @@
         <v>0.63127392017495898</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="121">
+      <c r="E10" s="66">
         <v>0.65150928008070796</v>
       </c>
       <c r="F10" s="62">
@@ -3871,11 +4087,11 @@
         <v>0.806941923774954</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="121">
+      <c r="E11" s="66">
         <v>0.38350360000150702</v>
       </c>
       <c r="F11" s="62">
@@ -3900,11 +4116,11 @@
         <v>0.67274213075060496</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D12" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="121">
+      <c r="E12" s="66">
         <v>0.56138537404248101</v>
       </c>
       <c r="F12" s="62">
@@ -3929,11 +4145,11 @@
         <v>0.71577380952380898</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="121">
+      <c r="E13" s="66">
         <v>0.62316849816849795</v>
       </c>
       <c r="F13" s="62">
@@ -3958,11 +4174,11 @@
         <v>0.65833333333333299</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D14" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="121">
+      <c r="E14" s="66">
         <v>0.96647138523007403</v>
       </c>
       <c r="F14" s="62">
@@ -3987,14 +4203,14 @@
         <v>0.96583333333333299</v>
       </c>
     </row>
-    <row r="15" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="67">
         <v>0.58750729072359098</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="63">
         <v>0.56379004373113195</v>
       </c>
       <c r="G15" s="60">
@@ -4006,7 +4222,7 @@
       <c r="I15" s="60">
         <v>0.718050980835654</v>
       </c>
-      <c r="J15" s="113">
+      <c r="J15" s="63">
         <v>0.69554550674377102</v>
       </c>
       <c r="K15" s="60">
@@ -4016,7 +4232,7 @@
         <v>0.63296597574140401</v>
       </c>
     </row>
-    <row r="16" spans="4:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="4:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D6:D8"/>
@@ -4034,69 +4250,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825C9D7C-0957-44CE-9979-7AF0E0FD46F9}">
-  <dimension ref="C2:Q108"/>
+  <dimension ref="C2:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="12" max="12" width="2.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="103" t="s">
+    <row r="2" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="L2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="103" t="s">
+      <c r="M2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-    </row>
-    <row r="3" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+    </row>
+    <row r="3" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D3" s="34"/>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="81" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="82"/>
+      <c r="I3" s="117"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
       <c r="L3" s="42"/>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="81" t="s">
+      <c r="N3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="81" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="82"/>
-    </row>
-    <row r="4" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q3" s="117"/>
+    </row>
+    <row r="4" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="34"/>
-      <c r="E4" s="88"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4112,7 +4330,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="36"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="88"/>
+      <c r="M4" s="116"/>
       <c r="N4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4126,28 +4344,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="100" t="s">
+    <row r="5" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>0.60051546391752497</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <v>0.732704402515723</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>0.702380952380952</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>0.74213836477987405</v>
       </c>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="100" t="s">
+      <c r="L5" s="118" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="12" t="s">
@@ -4166,8 +4384,8 @@
         <v>0.59375</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D6" s="104"/>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D6" s="119"/>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
@@ -4185,7 +4403,7 @@
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="104"/>
+      <c r="L6" s="145"/>
       <c r="M6" s="11" t="s">
         <v>10</v>
       </c>
@@ -4202,8 +4420,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D7" s="104"/>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="119"/>
       <c r="E7" s="11" t="s">
         <v>5</v>
       </c>
@@ -4221,7 +4439,7 @@
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="104"/>
+      <c r="L7" s="145"/>
       <c r="M7" s="11" t="s">
         <v>4</v>
       </c>
@@ -4238,8 +4456,8 @@
         <v>0.90909090909090895</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D8" s="104"/>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="119"/>
       <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
@@ -4257,7 +4475,7 @@
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="104"/>
+      <c r="L8" s="145"/>
       <c r="M8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4274,8 +4492,8 @@
         <v>0.82352941176470495</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D9" s="104"/>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="119"/>
       <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
@@ -4293,7 +4511,7 @@
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="38"/>
-      <c r="L9" s="104"/>
+      <c r="L9" s="145"/>
       <c r="M9" s="11" t="s">
         <v>6</v>
       </c>
@@ -4310,26 +4528,26 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D10" s="104"/>
-      <c r="E10" s="11" t="s">
+    <row r="10" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="119"/>
+      <c r="E10" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="123">
         <v>0.49038461538461497</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="124">
         <v>0.64150943396226401</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="123">
         <v>0.55371900826446196</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="125">
         <v>0.63207547169811296</v>
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="38"/>
-      <c r="L10" s="104"/>
+      <c r="L10" s="145"/>
       <c r="M10" s="11" t="s">
         <v>7</v>
       </c>
@@ -4346,1859 +4564,2069 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="108"/>
-      <c r="E11" s="26" t="s">
+    <row r="11" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="119"/>
+      <c r="E11" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="135">
         <v>0.479106242629185</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="136">
         <v>0.48450300540741198</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="135">
         <v>0.54088447518107097</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="137">
         <v>0.545626494000789</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="145"/>
+      <c r="M11" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="123">
         <v>1</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="124">
         <v>0.875</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="123">
         <v>0.88235294117647001</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="125">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="12" spans="4:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="100" t="s">
+    <row r="12" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="126"/>
+      <c r="E12" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="130">
+        <v>0.47931219774314798</v>
+      </c>
+      <c r="G12" s="131"/>
+      <c r="H12" s="130">
+        <v>0.54486835034927406</v>
+      </c>
+      <c r="I12" s="132"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="135">
+        <v>0.65150928008070796</v>
+      </c>
+      <c r="O12" s="136">
+        <v>0.59440253374076801</v>
+      </c>
+      <c r="P12" s="135">
+        <v>0.77092474012002599</v>
+      </c>
+      <c r="Q12" s="137">
+        <v>0.77341004583651596</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E13" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F13" s="128">
         <v>0.75806451612903203</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="2">
         <v>0.92446892210857601</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="1">
         <v>0.75229357798165097</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I13" s="3">
         <v>0.90322580645161199</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="27">
-        <v>0.65150928008070796</v>
-      </c>
-      <c r="O12" s="28">
-        <v>0.59440253374076801</v>
-      </c>
-      <c r="P12" s="27">
-        <v>0.77092474012002599</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>0.77341004583651596</v>
-      </c>
-    </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D13" s="101"/>
-      <c r="E13" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="25">
-        <v>0.69131832797427595</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.36440677966101598</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.63283582089552204</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.35932203389830503</v>
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="25">
-        <v>0.797752808988764</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0.93421052631578905</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0.822784810126582</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0.85526315789473595</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="102"/>
-      <c r="E14" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0.72469142205165404</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0.64443785088479599</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0.69256469943858601</v>
-      </c>
-      <c r="I14" s="32">
-        <v>0.63127392017495898</v>
+      <c r="L13" s="146"/>
+      <c r="M13" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="130">
+        <v>0.63432835820895495</v>
+      </c>
+      <c r="O13" s="131"/>
+      <c r="P13" s="130">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="Q13" s="132"/>
+    </row>
+    <row r="14" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="121"/>
+      <c r="E14" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="139">
+        <v>0.69131832797427595</v>
+      </c>
+      <c r="G14" s="124">
+        <v>0.36440677966101598</v>
+      </c>
+      <c r="H14" s="123">
+        <v>0.63283582089552204</v>
+      </c>
+      <c r="I14" s="125">
+        <v>0.35932203389830503</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="25">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0.68965517241379304</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0.75862068965517204</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="41"/>
+      <c r="L14" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="128">
+        <v>0.797752808988764</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.93421052631578905</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.822784810126582</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.85526315789473595</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="121"/>
+      <c r="E15" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="141">
+        <v>0.72469142205165404</v>
+      </c>
+      <c r="G15" s="136">
+        <v>0.64443785088479599</v>
+      </c>
+      <c r="H15" s="135">
+        <v>0.69256469943858601</v>
+      </c>
+      <c r="I15" s="137">
+        <v>0.63127392017495898</v>
+      </c>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="31">
-        <v>0.84332084893882597</v>
-      </c>
-      <c r="O15" s="28">
-        <v>0.81193284936479104</v>
-      </c>
-      <c r="P15" s="27">
-        <v>0.81139240506329102</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>0.806941923774954</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="43"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="139">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="O15" s="124">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="P15" s="123">
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="125">
+        <v>0.75862068965517204</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="133"/>
+      <c r="E16" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="130">
+        <v>0.74691026329930099</v>
+      </c>
+      <c r="G16" s="131"/>
+      <c r="H16" s="130">
+        <v>0.730789897904352</v>
+      </c>
+      <c r="I16" s="132"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-    </row>
-    <row r="17" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L16" s="145"/>
+      <c r="M16" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="141">
+        <v>0.84332084893882597</v>
+      </c>
+      <c r="O16" s="136">
+        <v>0.81193284936479104</v>
+      </c>
+      <c r="P16" s="135">
+        <v>0.81139240506329102</v>
+      </c>
+      <c r="Q16" s="137">
+        <v>0.806941923774954</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="43"/>
-      <c r="F17" t="s">
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="130">
+        <v>0.82835820895522305</v>
+      </c>
+      <c r="O17" s="131"/>
+      <c r="P17" s="130">
+        <v>0.81343283582089498</v>
+      </c>
+      <c r="Q17" s="132"/>
+    </row>
+    <row r="18" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="43"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="144"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="43"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="144"/>
+    </row>
+    <row r="20" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="43"/>
+      <c r="F20" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="41"/>
-      <c r="N17" s="107" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="N20" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-    </row>
-    <row r="18" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="43"/>
-      <c r="E18" s="87" t="s">
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+    </row>
+    <row r="21" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="43"/>
+      <c r="E21" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F21" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="81" t="s">
+      <c r="G21" s="77"/>
+      <c r="H21" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="87" t="s">
+      <c r="I21" s="117"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="81" t="s">
+      <c r="N21" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="89"/>
-      <c r="P18" s="81" t="s">
+      <c r="O21" s="77"/>
+      <c r="P21" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="82"/>
-    </row>
-    <row r="19" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="43"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="13" t="s">
+      <c r="Q21" s="117"/>
+    </row>
+    <row r="22" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="43"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.95192307692307598</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0.54838709677419295</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0.43272727272727202</v>
-      </c>
-      <c r="P20" s="7">
-        <v>0.59798994974874298</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0.43272727272727202</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D21" s="101"/>
-      <c r="E21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.96938775510204001</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0.371428571428571</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0.154150197628458</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0.45588235294117602</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0.36758893280632399</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D22" s="101"/>
-      <c r="E22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0.99</v>
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0.36965517241379298</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0.586433260393873</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0.41167192429021998</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0.57111597374179401</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D23" s="101"/>
-      <c r="E23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.90654205607476601</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.98958333333333304</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.95</v>
+      <c r="M22" s="70"/>
+      <c r="N22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.95192307692307598</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
       </c>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="11" t="s">
+      <c r="L23" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.54838709677419295</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.43272727272727202</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0.59798994974874298</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.43272727272727202</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="145"/>
+      <c r="E24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.96938775510204001</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.371428571428571</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.154150197628458</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.45588235294117602</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0.36758893280632399</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="145"/>
+      <c r="E25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.36965517241379298</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.586433260393873</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.41167192429021998</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0.57111597374179401</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="145"/>
+      <c r="E26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="4">
+      <c r="F26" s="4">
+        <v>0.90654205607476601</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.98958333333333304</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="4">
         <v>0</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O26" s="5">
         <v>0</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P26" s="4">
         <v>0.25806451612903197</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q26" s="6">
         <v>5.4421768707482901E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D24" s="101"/>
-      <c r="E24" s="11" t="s">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="145"/>
+      <c r="E27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G27" s="5">
         <v>1</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H27" s="4">
         <v>1</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I27" s="6">
         <v>1</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="11" t="s">
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N27" s="4">
         <v>0.50555555555555498</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O27" s="5">
         <v>0.42823529411764699</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P27" s="4">
         <v>0.46895074946466803</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q27" s="6">
         <v>0.51529411764705801</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D25" s="101"/>
-      <c r="E25" s="11" t="s">
+    <row r="28" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="145"/>
+      <c r="E28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F28" s="4">
         <v>0.98</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G28" s="5">
         <v>0.98</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H28" s="4">
         <v>0.98989898989898994</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I28" s="6">
         <v>0.98</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="11" t="s">
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N28" s="123">
         <v>0.50599520383692997</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O28" s="124">
         <v>0.78438661710037105</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P28" s="123">
         <v>0.59450171821305797</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q28" s="125">
         <v>0.64312267657992495</v>
       </c>
     </row>
-    <row r="26" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="101"/>
-      <c r="E26" s="11" t="s">
+    <row r="29" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="145"/>
+      <c r="E29" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F29" s="123">
         <v>0.95744680851063801</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G29" s="124">
         <v>0.9</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H29" s="123">
         <v>0.95192307692307598</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I29" s="125">
         <v>0.99</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="26" t="s">
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N29" s="135">
         <v>0.38350360000150702</v>
       </c>
-      <c r="O26" s="28">
+      <c r="O29" s="136">
         <v>0.39765544032793698</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P29" s="135">
         <v>0.46451020179781599</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q29" s="137">
         <v>0.43071179036830898</v>
       </c>
     </row>
-    <row r="27" spans="4:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="102"/>
-      <c r="E27" s="26" t="s">
+    <row r="30" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="145"/>
+      <c r="E30" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F30" s="135">
         <v>0.96647138523007403</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G30" s="136">
         <v>0.96571428571428497</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H30" s="135">
         <v>0.98454250814544897</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I30" s="137">
         <v>0.98428571428571399</v>
-      </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="25">
-        <v>0.64110671936758801</v>
-      </c>
-      <c r="O27" s="5">
-        <v>0.81099999999999905</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0.69302325581395297</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0.745</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="25">
-        <v>0.99002493765585997</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.967741935483871</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="25">
-        <v>0.66310160427807396</v>
-      </c>
-      <c r="O28" s="5">
-        <v>0.45036319612590803</v>
-      </c>
-      <c r="P28" s="4">
-        <v>0.66045272969374103</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0.60048426150121004</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="101"/>
-      <c r="E29" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="25">
-        <v>0.98996655518394605</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.98666666666666603</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0.96632996632996604</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0.956666666666666</v>
-      </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="31">
-        <v>0.65210416182283104</v>
-      </c>
-      <c r="O29" s="28">
-        <v>0.63068159806295399</v>
-      </c>
-      <c r="P29" s="27">
-        <v>0.67673799275384705</v>
-      </c>
-      <c r="Q29" s="32">
-        <v>0.67274213075060496</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D30" s="102"/>
-      <c r="E30" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="31">
-        <v>0.98999574641990296</v>
-      </c>
-      <c r="G30" s="28">
-        <v>0.98958333333333304</v>
-      </c>
-      <c r="H30" s="27">
-        <v>0.96703595090691796</v>
-      </c>
-      <c r="I30" s="32">
-        <v>0.96583333333333299</v>
       </c>
       <c r="J30" s="39"/>
       <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-    </row>
-    <row r="31" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="41"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="130">
+        <v>0.44852135815991201</v>
+      </c>
+      <c r="O30" s="131"/>
+      <c r="P30" s="130">
+        <v>0.478094194961664</v>
+      </c>
+      <c r="Q30" s="132"/>
+    </row>
+    <row r="31" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="146"/>
+      <c r="E31" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="130">
+        <v>0.96571428571428497</v>
+      </c>
+      <c r="G31" s="131"/>
+      <c r="H31" s="130">
+        <v>0.98428571428571399</v>
+      </c>
+      <c r="I31" s="132"/>
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-    </row>
-    <row r="32" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D32" s="43"/>
-      <c r="F32" t="s">
-        <v>32</v>
+      <c r="L31" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="128">
+        <v>0.64110671936758801</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.81099999999999905</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.69302325581395297</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="128">
+        <v>0.99002493765585997</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.97499999999999998</v>
       </c>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
-      <c r="L32" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="L32" s="145"/>
+      <c r="M32" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="139">
+        <v>0.66310160427807396</v>
+      </c>
+      <c r="O32" s="124">
+        <v>0.45036319612590803</v>
+      </c>
+      <c r="P32" s="123">
+        <v>0.66045272969374103</v>
+      </c>
+      <c r="Q32" s="125">
+        <v>0.60048426150121004</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="145"/>
+      <c r="E33" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="139">
+        <v>0.98996655518394605</v>
+      </c>
+      <c r="G33" s="124">
+        <v>0.98666666666666603</v>
+      </c>
+      <c r="H33" s="123">
+        <v>0.96632996632996604</v>
+      </c>
+      <c r="I33" s="125">
+        <v>0.956666666666666</v>
+      </c>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="141">
+        <v>0.65210416182283104</v>
+      </c>
+      <c r="O33" s="136">
+        <v>0.63068159806295399</v>
+      </c>
+      <c r="P33" s="135">
+        <v>0.67673799275384705</v>
+      </c>
+      <c r="Q33" s="137">
+        <v>0.67274213075060496</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="145"/>
+      <c r="E34" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="141">
+        <v>0.98999574641990296</v>
+      </c>
+      <c r="G34" s="136">
+        <v>0.98958333333333304</v>
+      </c>
+      <c r="H34" s="135">
+        <v>0.96703595090691796</v>
+      </c>
+      <c r="I34" s="137">
+        <v>0.96583333333333299</v>
+      </c>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="130">
+        <v>0.647864184008762</v>
+      </c>
+      <c r="O34" s="131"/>
+      <c r="P34" s="130">
+        <v>0.67962760131434796</v>
+      </c>
+      <c r="Q34" s="132"/>
+    </row>
+    <row r="35" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="146"/>
+      <c r="E35" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="130">
+        <v>0.99</v>
+      </c>
+      <c r="G35" s="131"/>
+      <c r="H35" s="130">
+        <v>0.96714285714285697</v>
+      </c>
+      <c r="I35" s="132"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+    </row>
+    <row r="36" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="43"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+    </row>
+    <row r="37" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="43"/>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="36"/>
+      <c r="N37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="43"/>
-      <c r="E33" s="87" t="s">
+    <row r="38" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="81" t="s">
+      <c r="F38" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="81" t="s">
+      <c r="G38" s="77"/>
+      <c r="H38" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="82"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="89"/>
-      <c r="P33" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q33" s="82"/>
-    </row>
-    <row r="34" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D34" s="43"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0.56451612903225801</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.72916666666666596</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0.77272727272727204</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="O35" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D36" s="101"/>
-      <c r="E36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.61428571428571399</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0.89583333333333304</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0.75510204081632604</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N36" s="4">
-        <v>0.53846153846153799</v>
-      </c>
-      <c r="O36" s="5">
-        <v>0.46666666666666601</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0.73333333333333295</v>
-      </c>
-    </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D37" s="101"/>
-      <c r="E37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="O37" s="5">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="P37" s="4">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D38" s="101"/>
-      <c r="E38" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0.63414634146341398</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0.6875</v>
-      </c>
+      <c r="I38" s="117"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0.69230769230769196</v>
-      </c>
-      <c r="O38" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="P38" s="4">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>0.53333333333333299</v>
-      </c>
-    </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D39" s="101"/>
-      <c r="E39" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0.372093023255814</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="I39" s="6">
+      <c r="L38" s="147"/>
+      <c r="M38" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="77"/>
+      <c r="P38" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="117"/>
+    </row>
+    <row r="39" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="147"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="154"/>
+      <c r="N39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.56451612903225801</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.77272727272727204</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="7">
         <v>0.66666666666666596</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0.58974358974358898</v>
-      </c>
-      <c r="O39" s="5">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="P39" s="4">
-        <v>0.78125</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D40" s="101"/>
-      <c r="E40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0.42857142857142799</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.61538461538461497</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="O40" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="P40" s="4">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>0.53333333333333299</v>
-      </c>
-    </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D41" s="101"/>
-      <c r="E41" s="11" t="s">
-        <v>8</v>
+      <c r="O40" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D41" s="145"/>
+      <c r="E41" s="149" t="s">
+        <v>15</v>
       </c>
       <c r="F41" s="4">
-        <v>0.63636363636363602</v>
+        <v>0.61428571428571399</v>
       </c>
       <c r="G41" s="5">
-        <v>0.29166666666666602</v>
+        <v>0.89583333333333304</v>
       </c>
       <c r="H41" s="4">
-        <v>0.53658536585365801</v>
+        <v>0.75510204081632604</v>
       </c>
       <c r="I41" s="6">
-        <v>0.45833333333333298</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="J41" s="37"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="11" t="s">
-        <v>16</v>
+      <c r="K41" s="37"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="149" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="4">
-        <v>0.58333333333333304</v>
+        <v>0.53846153846153799</v>
       </c>
       <c r="O41" s="5">
         <v>0.46666666666666601</v>
       </c>
       <c r="P41" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0.73333333333333295</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D42" s="145"/>
+      <c r="E42" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="145"/>
+      <c r="M42" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="O42" s="5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="Q41" s="6">
-        <v>0.93333333333333302</v>
-      </c>
-    </row>
-    <row r="42" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D42" s="101"/>
-      <c r="E42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0.69565217391304301</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="P42" s="4">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D43" s="145"/>
+      <c r="E43" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.63414634146341398</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D44" s="145"/>
+      <c r="E44" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.372093023255814</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="I44" s="6">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H42" s="4">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="I42" s="6">
+      <c r="J44" s="37"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="145"/>
+      <c r="M44" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0.58974358974358898</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0.78125</v>
+      </c>
+      <c r="Q44" s="6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" s="27">
-        <v>0.62316849816849795</v>
-      </c>
-      <c r="O42" s="28">
-        <v>0.59523809523809501</v>
-      </c>
-      <c r="P42" s="27">
-        <v>0.70382524221809895</v>
-      </c>
-      <c r="Q42" s="32">
-        <v>0.68095238095238098</v>
-      </c>
-    </row>
-    <row r="43" spans="4:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D43" s="102"/>
-      <c r="E43" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="27">
-        <v>0.56138537404248101</v>
-      </c>
-      <c r="G43" s="28">
-        <v>0.55729166666666596</v>
-      </c>
-      <c r="H43" s="27">
-        <v>0.65505732943015105</v>
-      </c>
-      <c r="I43" s="32">
-        <v>0.63802083333333304</v>
-      </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="25">
-        <v>0.57317073170731703</v>
-      </c>
-      <c r="O43" s="5">
-        <v>0.78333333333333299</v>
-      </c>
-      <c r="P43" s="4">
-        <v>0.63013698630136905</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>0.76666666666666605</v>
-      </c>
-    </row>
-    <row r="44" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="25">
-        <v>0.755868544600939</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0.83854166666666596</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0.73684210526315697</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0.72916666666666596</v>
-      </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="N44" s="25">
-        <v>0.65789473684210498</v>
-      </c>
-      <c r="O44" s="5">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="P44" s="4">
-        <v>0.70212765957446799</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D45" s="101"/>
-      <c r="E45" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="25">
-        <v>0.78911564625850295</v>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D45" s="145"/>
+      <c r="E45" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.42857142857142799</v>
       </c>
       <c r="G45" s="5">
-        <v>0.69047619047619002</v>
+        <v>0.375</v>
       </c>
       <c r="H45" s="4">
-        <v>0.69411764705882295</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="I45" s="6">
-        <v>0.702380952380952</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="31">
-        <v>0.615532734274711</v>
-      </c>
-      <c r="O45" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="P45" s="27">
-        <v>0.66613232293791902</v>
-      </c>
-      <c r="Q45" s="32">
-        <v>0.65833333333333299</v>
-      </c>
-    </row>
-    <row r="46" spans="4:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D46" s="102"/>
-      <c r="E46" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="31">
-        <v>0.77249209542972097</v>
-      </c>
-      <c r="G46" s="28">
-        <v>0.76450892857142805</v>
-      </c>
-      <c r="H46" s="27">
-        <v>0.71547987616098996</v>
-      </c>
-      <c r="I46" s="32">
-        <v>0.71577380952380898</v>
+      <c r="L45" s="145"/>
+      <c r="M45" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="145"/>
+      <c r="E46" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.29166666666666602</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.53658536585365801</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.45833333333333298</v>
       </c>
       <c r="J46" s="39"/>
       <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-    </row>
-    <row r="47" spans="4:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="41"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="123">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="O46" s="124">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="P46" s="123">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Q46" s="125">
+        <v>0.93333333333333302</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="145"/>
+      <c r="E47" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="123">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="G47" s="124">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H47" s="123">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I47" s="125">
+        <v>0.83333333333333304</v>
+      </c>
       <c r="J47" s="39"/>
       <c r="K47" s="39"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-    </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D48" s="41"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-    </row>
-    <row r="49" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D49" s="43"/>
-      <c r="F49" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-    </row>
-    <row r="50" spans="3:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="40"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="89"/>
-      <c r="H50" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="82"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-    </row>
-    <row r="51" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C51" s="40"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-    </row>
-    <row r="52" spans="3:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="40"/>
-      <c r="D52" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0.68810679611650405</v>
-      </c>
-      <c r="G52" s="8">
-        <v>0.75099337748344297</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0.71025641025640995</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0.73377483443708602</v>
-      </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="L47" s="145"/>
+      <c r="M47" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="135">
+        <v>0.56138537404248101</v>
+      </c>
+      <c r="O47" s="136">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="P47" s="135">
+        <v>0.65505732943015105</v>
+      </c>
+      <c r="Q47" s="137">
+        <v>0.63802083333333304</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="145"/>
+      <c r="E48" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="135">
+        <v>0.56138537404248101</v>
+      </c>
+      <c r="G48" s="136">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="H48" s="135">
+        <v>0.65505732943015105</v>
+      </c>
+      <c r="I48" s="137">
+        <v>0.63802083333333304</v>
+      </c>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="146"/>
+      <c r="M48" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="N48" s="130">
+        <v>0.61666666666666603</v>
+      </c>
+      <c r="O48" s="131"/>
+      <c r="P48" s="130">
+        <v>0.7</v>
+      </c>
+      <c r="Q48" s="132"/>
+    </row>
+    <row r="49" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="146"/>
+      <c r="E49" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="130">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="G49" s="131"/>
+      <c r="H49" s="130">
+        <v>0.65833333333333299</v>
+      </c>
+      <c r="I49" s="132"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="128">
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.63013698630136905</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0.76666666666666605</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="128">
+        <v>0.755868544600939</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.83854166666666596</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.73684210526315697</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="139">
+        <v>0.65789473684210498</v>
+      </c>
+      <c r="O50" s="124">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="P50" s="123">
+        <v>0.70212765957446799</v>
+      </c>
+      <c r="Q50" s="125">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="145"/>
+      <c r="E51" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="139">
+        <v>0.78911564625850295</v>
+      </c>
+      <c r="G51" s="124">
+        <v>0.69047619047619002</v>
+      </c>
+      <c r="H51" s="123">
+        <v>0.69411764705882295</v>
+      </c>
+      <c r="I51" s="125">
+        <v>0.702380952380952</v>
+      </c>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="145"/>
+      <c r="M51" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="135">
+        <v>0.56138537404248101</v>
+      </c>
+      <c r="O51" s="136">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="P51" s="135">
+        <v>0.65505732943015105</v>
+      </c>
+      <c r="Q51" s="137">
+        <v>0.63802083333333304</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="145"/>
+      <c r="E52" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="135">
+        <v>0.56138537404248101</v>
+      </c>
+      <c r="G52" s="136">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="H52" s="135">
+        <v>0.65505732943015105</v>
+      </c>
+      <c r="I52" s="137">
+        <v>0.63802083333333304</v>
+      </c>
+      <c r="J52" s="35"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="130">
+        <v>0.6</v>
+      </c>
+      <c r="O52" s="131"/>
+      <c r="P52" s="130">
+        <v>0.65833333333333299</v>
+      </c>
+      <c r="Q52" s="132"/>
+    </row>
+    <row r="53" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="40"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.54986522911051205</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0.42411642411642397</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0.54507337526205402</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0.54054054054054002</v>
-      </c>
+      <c r="D53" s="146"/>
+      <c r="E53" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="130">
+        <v>0.76944444444444404</v>
+      </c>
+      <c r="G53" s="131"/>
+      <c r="H53" s="130">
+        <v>0.71666666666666601</v>
+      </c>
+      <c r="I53" s="132"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="L53" s="37"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+    </row>
+    <row r="54" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C54" s="40"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0.57217847769028796</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0.45322245322245303</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0.56682027649769495</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0.51143451143451102</v>
-      </c>
+      <c r="D54" s="43"/>
       <c r="J54" s="37"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C55" s="40"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0.58852867830423905</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.37579617834394902</v>
-      </c>
-      <c r="H55" s="4">
-        <v>0.554245283018867</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0.37420382165604998</v>
-      </c>
       <c r="J55" s="37"/>
-      <c r="K55" s="38"/>
+      <c r="K55" s="37"/>
       <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+    </row>
+    <row r="56" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="40"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0.55081669691470003</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0.71327849588719106</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0.60336300692383704</v>
-      </c>
-      <c r="I56" s="6">
-        <v>0.71680376028202097</v>
-      </c>
+      <c r="D56" s="147"/>
+      <c r="F56" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
       <c r="J56" s="37"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="K56" s="37"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+    </row>
+    <row r="57" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C57" s="40"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0.57554786620530496</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0.665333333333333</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0.62073170731707294</v>
-      </c>
-      <c r="I57" s="6">
-        <v>0.67866666666666597</v>
-      </c>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-    </row>
-    <row r="58" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D57" s="147"/>
+      <c r="E57" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="77"/>
+      <c r="H57" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="117"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+    </row>
+    <row r="58" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="40"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="27">
-        <v>0.58750729072359098</v>
-      </c>
-      <c r="G58" s="28">
-        <v>0.56379004373113195</v>
-      </c>
-      <c r="H58" s="27">
-        <v>0.60008167654598898</v>
-      </c>
-      <c r="I58" s="32">
-        <v>0.59257068916947897</v>
-      </c>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="37"/>
+      <c r="K58" s="38"/>
       <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-    </row>
-    <row r="59" spans="3:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+    </row>
+    <row r="59" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="40"/>
-      <c r="D59" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="25">
-        <v>0.73728306403351196</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0.84296955183031097</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0.69048307781313201</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0.81662675333561396</v>
-      </c>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
+      <c r="D59" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.68810679611650405</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0.75099337748344297</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.71025641025640995</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0.73377483443708602</v>
+      </c>
+      <c r="J59" s="37"/>
+      <c r="K59" s="38"/>
       <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C60" s="40"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="25">
-        <v>0.69881889763779503</v>
+      <c r="D60" s="145"/>
+      <c r="E60" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.54986522911051205</v>
       </c>
       <c r="G60" s="5">
-        <v>0.54812146165723097</v>
+        <v>0.42411642411642397</v>
       </c>
       <c r="H60" s="4">
-        <v>0.61958836053938904</v>
+        <v>0.54507337526205402</v>
       </c>
       <c r="I60" s="6">
-        <v>0.449305198147195</v>
+        <v>0.54054054054054002</v>
       </c>
       <c r="J60" s="39"/>
       <c r="K60" s="39"/>
       <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-    </row>
-    <row r="61" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C61" s="40"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="31">
-        <v>0.718050980835654</v>
-      </c>
-      <c r="G61" s="28">
-        <v>0.69554550674377102</v>
-      </c>
-      <c r="H61" s="27">
-        <v>0.65503571917626102</v>
-      </c>
-      <c r="I61" s="32">
-        <v>0.63296597574140401</v>
+      <c r="D61" s="145"/>
+      <c r="E61" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.57217847769028796</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.45322245322245303</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.56682027649769495</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.51143451143451102</v>
       </c>
       <c r="J61" s="39"/>
       <c r="K61" s="39"/>
       <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-    </row>
-    <row r="62" spans="3:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C62" s="40"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.58852867830423905</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.37579617834394902</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.554245283018867</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.37420382165604998</v>
+      </c>
       <c r="J62" s="39"/>
       <c r="K62" s="39"/>
       <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C63" s="40"/>
-      <c r="D63" s="43"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.55081669691470003</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.71327849588719106</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.60336300692383704</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.71680376028202097</v>
+      </c>
       <c r="J63" s="39"/>
       <c r="K63" s="39"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+    </row>
+    <row r="64" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="40"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-    </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D64" s="145"/>
+      <c r="E64" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="123">
+        <v>0.57554786620530496</v>
+      </c>
+      <c r="G64" s="124">
+        <v>0.665333333333333</v>
+      </c>
+      <c r="H64" s="123">
+        <v>0.62073170731707294</v>
+      </c>
+      <c r="I64" s="125">
+        <v>0.67866666666666597</v>
+      </c>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" s="40"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D65" s="145"/>
+      <c r="E65" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="135">
+        <v>0.56138537404248101</v>
+      </c>
+      <c r="G65" s="136">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="H65" s="135">
+        <v>0.65505732943015105</v>
+      </c>
+      <c r="I65" s="137">
+        <v>0.63802083333333304</v>
+      </c>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+    </row>
+    <row r="66" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="40"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-    </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D66" s="146"/>
+      <c r="E66" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="130">
+        <v>0.59072478459199096</v>
+      </c>
+      <c r="G66" s="131"/>
+      <c r="H66" s="130">
+        <v>0.61175874303091704</v>
+      </c>
+      <c r="I66" s="132"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+    </row>
+    <row r="67" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C67" s="40"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
+      <c r="D67" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="128">
+        <v>0.73728306403351196</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.84296955183031097</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.69048307781313201</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.81662675333561396</v>
+      </c>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
       <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-    </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+    </row>
+    <row r="68" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="40"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="139">
+        <v>0.69881889763779503</v>
+      </c>
+      <c r="G68" s="124">
+        <v>0.54812146165723097</v>
+      </c>
+      <c r="H68" s="123">
+        <v>0.61958836053938904</v>
+      </c>
+      <c r="I68" s="125">
+        <v>0.449305198147195</v>
+      </c>
+      <c r="J68" s="35"/>
+      <c r="K68" s="36"/>
       <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-    </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C69" s="40"/>
+      <c r="D69" s="145"/>
+      <c r="E69" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="135">
+        <v>0.56138537404248101</v>
+      </c>
+      <c r="G69" s="136">
+        <v>0.55729166666666596</v>
+      </c>
+      <c r="H69" s="135">
+        <v>0.65505732943015105</v>
+      </c>
+      <c r="I69" s="137">
+        <v>0.63802083333333304</v>
+      </c>
       <c r="J69" s="37"/>
       <c r="K69" s="37"/>
       <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-    </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+    </row>
+    <row r="70" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70" s="40"/>
+      <c r="D70" s="146"/>
+      <c r="E70" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="130">
+        <v>0.72523633374434804</v>
+      </c>
+      <c r="G70" s="131"/>
+      <c r="H70" s="130">
+        <v>0.66995478832716804</v>
+      </c>
+      <c r="I70" s="132"/>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
       <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-    </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+    </row>
+    <row r="71" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C71" s="40"/>
       <c r="J71" s="37"/>
       <c r="K71" s="37"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-    </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="L71" s="37"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C72" s="40"/>
       <c r="J72" s="37"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-    </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C73" s="40"/>
       <c r="J73" s="37"/>
-      <c r="K73" s="38"/>
+      <c r="K73" s="37"/>
       <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-    </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C74" s="40"/>
       <c r="J74" s="37"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-    </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="K74" s="37"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C75" s="40"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-    </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J75" s="37"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C76" s="40"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="38"/>
       <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-    </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C77" s="40"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="38"/>
       <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-    </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C78" s="40"/>
       <c r="J78" s="39"/>
       <c r="K78" s="39"/>
       <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-    </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C79" s="40"/>
       <c r="J79" s="39"/>
       <c r="K79" s="39"/>
       <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-    </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C80" s="40"/>
       <c r="J80" s="39"/>
       <c r="K80" s="39"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-    </row>
-    <row r="81" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-    </row>
-    <row r="82" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J82" s="35"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-    </row>
-    <row r="83" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-    </row>
-    <row r="84" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+    </row>
+    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+    </row>
+    <row r="82" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+    </row>
+    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+    </row>
+    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
       <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-    </row>
-    <row r="85" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+    </row>
+    <row r="85" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J85" s="35"/>
+      <c r="K85" s="36"/>
       <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-    </row>
-    <row r="86" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+    </row>
+    <row r="86" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J86" s="37"/>
       <c r="K86" s="37"/>
       <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-    </row>
-    <row r="87" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+    </row>
+    <row r="87" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J87" s="37"/>
       <c r="K87" s="37"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-    </row>
-    <row r="88" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="L87" s="37"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+    </row>
+    <row r="88" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J88" s="37"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-    </row>
-    <row r="89" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+    </row>
+    <row r="89" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J89" s="37"/>
-      <c r="K89" s="38"/>
+      <c r="K89" s="37"/>
       <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-    </row>
-    <row r="90" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+    </row>
+    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J90" s="37"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-    </row>
-    <row r="91" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-    </row>
-    <row r="92" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+    </row>
+    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J91" s="37"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+    </row>
+    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J92" s="37"/>
+      <c r="K92" s="38"/>
       <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-    </row>
-    <row r="93" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+    </row>
+    <row r="93" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J93" s="37"/>
+      <c r="K93" s="38"/>
       <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
-    </row>
-    <row r="94" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+    </row>
+    <row r="94" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J94" s="39"/>
       <c r="K94" s="39"/>
       <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-    </row>
-    <row r="95" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+    </row>
+    <row r="95" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J95" s="39"/>
       <c r="K95" s="39"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-    </row>
-    <row r="96" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-    </row>
-    <row r="97" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J97" s="35"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="37"/>
-    </row>
-    <row r="98" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-    </row>
-    <row r="99" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J99" s="37"/>
-      <c r="K99" s="37"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+    </row>
+    <row r="96" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="38"/>
+    </row>
+    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="39"/>
+    </row>
+    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
       <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="37"/>
-    </row>
-    <row r="100" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J100" s="37"/>
-      <c r="K100" s="37"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+    </row>
+    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J100" s="35"/>
+      <c r="K100" s="36"/>
       <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="37"/>
-    </row>
-    <row r="101" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+    </row>
+    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J101" s="37"/>
       <c r="K101" s="37"/>
       <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-    </row>
-    <row r="102" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+    </row>
+    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J102" s="37"/>
       <c r="K102" s="37"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
-      <c r="N102" s="38"/>
-    </row>
-    <row r="103" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="L102" s="37"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+    </row>
+    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J103" s="37"/>
-      <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="38"/>
-    </row>
-    <row r="104" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+    </row>
+    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J104" s="37"/>
-      <c r="K104" s="38"/>
+      <c r="K104" s="37"/>
       <c r="L104" s="38"/>
-      <c r="M104" s="38"/>
-      <c r="N104" s="38"/>
-    </row>
-    <row r="105" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
+    </row>
+    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J105" s="37"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
-      <c r="N105" s="39"/>
-    </row>
-    <row r="106" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="N106" s="39"/>
-    </row>
-    <row r="107" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J107" s="39"/>
-      <c r="K107" s="39"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+    </row>
+    <row r="106" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J106" s="37"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="37"/>
+    </row>
+    <row r="107" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J107" s="37"/>
+      <c r="K107" s="38"/>
       <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
-      <c r="N107" s="39"/>
-    </row>
-    <row r="108" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="J108" s="39"/>
-      <c r="K108" s="39"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="37"/>
+    </row>
+    <row r="108" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J108" s="37"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="39"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="37"/>
+    </row>
+    <row r="109" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J109" s="39"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="39"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+    </row>
+    <row r="110" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J110" s="39"/>
+      <c r="K110" s="39"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="38"/>
+    </row>
+    <row r="111" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J111" s="39"/>
+      <c r="K111" s="39"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="38"/>
+    </row>
+    <row r="112" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="M112" s="39"/>
+      <c r="N112" s="39"/>
+    </row>
+    <row r="113" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M113" s="39"/>
+      <c r="N113" s="39"/>
+    </row>
+    <row r="114" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M114" s="39"/>
+      <c r="N114" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="67">
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="L40:L48"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="L23:L30"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="L5:L13"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D52:D58"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="D35:D43"/>
-    <mergeCell ref="L35:L42"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Таблицы с результатами.xlsx
+++ b/documents/Таблицы с результатами.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\emotion_recognition\knn_svm\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F19B8C6F-F3CA-45D6-B1EF-20BDE6D7B748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AB9AD6-8136-4246-990C-245F4C89D635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Сводная (вар 2)" sheetId="3" r:id="rId2"/>
     <sheet name="Раздельные" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1637,7 +1637,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1751,157 +1751,17 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="35" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,25 +1787,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1953,6 +1946,14 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2342,35 +2343,35 @@
       <c r="N2" s="99"/>
     </row>
     <row r="3" spans="4:15" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="124"/>
+      <c r="H3" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="69" t="s">
+      <c r="I3" s="125"/>
+      <c r="J3" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="72"/>
+      <c r="L3" s="120"/>
       <c r="M3" s="95" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="96"/>
     </row>
     <row r="4" spans="4:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="74"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2384,7 @@
       <c r="I4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="118"/>
       <c r="K4" s="68" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2399,7 @@
       </c>
     </row>
     <row r="5" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="74"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
@@ -2414,14 +2415,14 @@
       <c r="I5" s="19">
         <v>0.74213836477987405</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="94"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="104"/>
     </row>
     <row r="6" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="74"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
@@ -2437,14 +2438,14 @@
       <c r="I6" s="20">
         <v>0.41823899371069101</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="81"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="105"/>
     </row>
     <row r="7" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="74"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="11" t="s">
         <v>5</v>
       </c>
@@ -2460,14 +2461,14 @@
       <c r="I7" s="20">
         <v>0.43081761006289299</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="81"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="105"/>
     </row>
     <row r="8" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="74"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2483,14 +2484,14 @@
       <c r="I8" s="20">
         <v>0.47484276729559699</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="81"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="105"/>
     </row>
     <row r="9" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="74"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2523,7 +2524,7 @@
       </c>
     </row>
     <row r="10" spans="4:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="74"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
@@ -2556,7 +2557,7 @@
       </c>
     </row>
     <row r="11" spans="4:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="75"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="26" t="s">
         <v>21</v>
       </c>
@@ -2589,7 +2590,7 @@
       </c>
     </row>
     <row r="12" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="100" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -2607,15 +2608,15 @@
       <c r="I12" s="19">
         <v>0.59375</v>
       </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="94"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="104"/>
       <c r="O12" s="33"/>
     </row>
     <row r="13" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="100"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
@@ -2631,14 +2632,14 @@
       <c r="I13" s="20">
         <v>0.75</v>
       </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="81"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="105"/>
     </row>
     <row r="14" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="100"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="11" t="s">
         <v>4</v>
       </c>
@@ -2654,14 +2655,14 @@
       <c r="I14" s="20">
         <v>0.90909090909090895</v>
       </c>
-      <c r="J14" s="83"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="81"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="105"/>
     </row>
     <row r="15" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="100"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="11" t="s">
         <v>5</v>
       </c>
@@ -2677,14 +2678,14 @@
       <c r="I15" s="20">
         <v>0.82352941176470495</v>
       </c>
-      <c r="J15" s="83"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="81"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="105"/>
     </row>
     <row r="16" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="11" t="s">
         <v>6</v>
       </c>
@@ -2700,14 +2701,14 @@
       <c r="I16" s="20">
         <v>0.5</v>
       </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="81"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="105"/>
     </row>
     <row r="17" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="100"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="11" t="s">
         <v>7</v>
       </c>
@@ -2740,7 +2741,7 @@
       </c>
     </row>
     <row r="18" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="100"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="11" t="s">
         <v>8</v>
       </c>
@@ -2773,7 +2774,7 @@
       </c>
     </row>
     <row r="19" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="100"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="45" t="s">
         <v>21</v>
       </c>
@@ -2806,7 +2807,7 @@
       </c>
     </row>
     <row r="20" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="102" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2824,14 +2825,14 @@
       <c r="I20" s="21">
         <v>0.43272727272727202</v>
       </c>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="80"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="112"/>
     </row>
     <row r="21" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="100"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
@@ -2847,14 +2848,14 @@
       <c r="I21" s="20">
         <v>0.36758893280632399</v>
       </c>
-      <c r="J21" s="83"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="81"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="105"/>
     </row>
     <row r="22" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="100"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="11" t="s">
         <v>13</v>
       </c>
@@ -2870,14 +2871,14 @@
       <c r="I22" s="20">
         <v>0.57111597374179401</v>
       </c>
-      <c r="J22" s="83"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="81"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="105"/>
     </row>
     <row r="23" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="100"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="11" t="s">
         <v>6</v>
       </c>
@@ -2893,14 +2894,14 @@
       <c r="I23" s="20">
         <v>5.4421768707482901E-2</v>
       </c>
-      <c r="J23" s="83"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="81"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="105"/>
     </row>
     <row r="24" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="100"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="11" t="s">
         <v>7</v>
       </c>
@@ -2933,7 +2934,7 @@
       </c>
     </row>
     <row r="25" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="100"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="11" t="s">
         <v>8</v>
       </c>
@@ -2966,7 +2967,7 @@
       </c>
     </row>
     <row r="26" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="102"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="26" t="s">
         <v>21</v>
       </c>
@@ -2999,7 +3000,7 @@
       </c>
     </row>
     <row r="27" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="102" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -3017,15 +3018,15 @@
       <c r="I27" s="21">
         <v>0.70833333333333304</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="80"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="112"/>
       <c r="O27" s="16"/>
     </row>
     <row r="28" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="100"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="11" t="s">
         <v>15</v>
       </c>
@@ -3041,14 +3042,14 @@
       <c r="I28" s="20">
         <v>0.77083333333333304</v>
       </c>
-      <c r="J28" s="83"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="81"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="105"/>
     </row>
     <row r="29" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="100"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="11" t="s">
         <v>4</v>
       </c>
@@ -3064,14 +3065,14 @@
       <c r="I29" s="20">
         <v>0.64583333333333304</v>
       </c>
-      <c r="J29" s="83"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="81"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="105"/>
     </row>
     <row r="30" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="100"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="11" t="s">
         <v>5</v>
       </c>
@@ -3087,14 +3088,14 @@
       <c r="I30" s="20">
         <v>0.6875</v>
       </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="81"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="105"/>
     </row>
     <row r="31" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="100"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="11" t="s">
         <v>6</v>
       </c>
@@ -3110,14 +3111,14 @@
       <c r="I31" s="20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="81"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="105"/>
     </row>
     <row r="32" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="100"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="11" t="s">
         <v>7</v>
       </c>
@@ -3133,14 +3134,14 @@
       <c r="I32" s="20">
         <v>0.33333333333333298</v>
       </c>
-      <c r="J32" s="83"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="81"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="105"/>
     </row>
     <row r="33" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="100"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="11" t="s">
         <v>8</v>
       </c>
@@ -3173,7 +3174,7 @@
       </c>
     </row>
     <row r="34" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="100"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="11" t="s">
         <v>16</v>
       </c>
@@ -3206,7 +3207,7 @@
       </c>
     </row>
     <row r="35" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="102"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="26" t="s">
         <v>21</v>
       </c>
@@ -3239,7 +3240,7 @@
       </c>
     </row>
     <row r="36" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="101" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -3257,14 +3258,14 @@
       <c r="I36" s="19">
         <v>0.8</v>
       </c>
-      <c r="J36" s="82"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="94"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="104"/>
     </row>
     <row r="37" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="100"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="11" t="s">
         <v>4</v>
       </c>
@@ -3280,14 +3281,14 @@
       <c r="I37" s="20">
         <v>0.73333333333333295</v>
       </c>
-      <c r="J37" s="83"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="81"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="105"/>
     </row>
     <row r="38" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="100"/>
+      <c r="D38" s="101"/>
       <c r="E38" s="11" t="s">
         <v>5</v>
       </c>
@@ -3303,14 +3304,14 @@
       <c r="I38" s="20">
         <v>0.4</v>
       </c>
-      <c r="J38" s="83"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="81"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="105"/>
     </row>
     <row r="39" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="100"/>
+      <c r="D39" s="101"/>
       <c r="E39" s="11" t="s">
         <v>6</v>
       </c>
@@ -3326,14 +3327,14 @@
       <c r="I39" s="20">
         <v>0.53333333333333299</v>
       </c>
-      <c r="J39" s="83"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="81"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="105"/>
     </row>
     <row r="40" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="100"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="11" t="s">
         <v>7</v>
       </c>
@@ -3349,14 +3350,14 @@
       <c r="I40" s="20">
         <v>0.83333333333333304</v>
       </c>
-      <c r="J40" s="83"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="81"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="105"/>
     </row>
     <row r="41" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="100"/>
+      <c r="D41" s="101"/>
       <c r="E41" s="11" t="s">
         <v>8</v>
       </c>
@@ -3389,7 +3390,7 @@
       </c>
     </row>
     <row r="42" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="100"/>
+      <c r="D42" s="101"/>
       <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
@@ -3422,7 +3423,7 @@
       </c>
     </row>
     <row r="43" spans="4:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="100"/>
+      <c r="D43" s="101"/>
       <c r="E43" s="45" t="s">
         <v>21</v>
       </c>
@@ -3455,7 +3456,7 @@
       </c>
     </row>
     <row r="44" spans="4:15" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="101" t="s">
+      <c r="D44" s="102" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -3473,15 +3474,15 @@
       <c r="I44" s="21">
         <v>1</v>
       </c>
-      <c r="J44" s="90"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="80"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="112"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="100"/>
+      <c r="D45" s="101"/>
       <c r="E45" s="11" t="s">
         <v>4</v>
       </c>
@@ -3497,14 +3498,14 @@
       <c r="I45" s="20">
         <v>0.98</v>
       </c>
-      <c r="J45" s="83"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="81"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="105"/>
     </row>
     <row r="46" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="100"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="11" t="s">
         <v>5</v>
       </c>
@@ -3520,14 +3521,14 @@
       <c r="I46" s="20">
         <v>0.99</v>
       </c>
-      <c r="J46" s="83"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="81"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="105"/>
     </row>
     <row r="47" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="100"/>
+      <c r="D47" s="101"/>
       <c r="E47" s="11" t="s">
         <v>6</v>
       </c>
@@ -3543,14 +3544,14 @@
       <c r="I47" s="20">
         <v>0.95</v>
       </c>
-      <c r="J47" s="83"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="81"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="109"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="105"/>
     </row>
     <row r="48" spans="4:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="100"/>
+      <c r="D48" s="101"/>
       <c r="E48" s="11" t="s">
         <v>7</v>
       </c>
@@ -3566,14 +3567,14 @@
       <c r="I48" s="20">
         <v>1</v>
       </c>
-      <c r="J48" s="83"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="81"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="105"/>
     </row>
     <row r="49" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="100"/>
+      <c r="D49" s="101"/>
       <c r="E49" s="11" t="s">
         <v>8</v>
       </c>
@@ -3606,7 +3607,7 @@
       </c>
     </row>
     <row r="50" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="100"/>
+      <c r="D50" s="101"/>
       <c r="E50" s="11" t="s">
         <v>16</v>
       </c>
@@ -3639,7 +3640,7 @@
       </c>
     </row>
     <row r="51" spans="4:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="102"/>
+      <c r="D51" s="103"/>
       <c r="E51" s="26" t="s">
         <v>21</v>
       </c>
@@ -3672,7 +3673,7 @@
       </c>
     </row>
     <row r="52" spans="4:14" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="101" t="s">
+      <c r="D52" s="102" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="12" t="s">
@@ -3690,14 +3691,14 @@
       <c r="I52" s="21">
         <v>0.73377483443708602</v>
       </c>
-      <c r="J52" s="90"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="80"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="110"/>
+      <c r="N52" s="112"/>
     </row>
     <row r="53" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="100"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="11" t="s">
         <v>4</v>
       </c>
@@ -3713,14 +3714,14 @@
       <c r="I53" s="20">
         <v>0.54054054054054002</v>
       </c>
-      <c r="J53" s="83"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="81"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="109"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="105"/>
     </row>
     <row r="54" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="100"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="11" t="s">
         <v>5</v>
       </c>
@@ -3736,14 +3737,14 @@
       <c r="I54" s="20">
         <v>0.51143451143451102</v>
       </c>
-      <c r="J54" s="83"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="87"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="81"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="109"/>
+      <c r="M54" s="111"/>
+      <c r="N54" s="105"/>
     </row>
     <row r="55" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="100"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="11" t="s">
         <v>6</v>
       </c>
@@ -3759,14 +3760,14 @@
       <c r="I55" s="20">
         <v>0.37420382165604998</v>
       </c>
-      <c r="J55" s="83"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="81"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="105"/>
     </row>
     <row r="56" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="100"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="11" t="s">
         <v>7</v>
       </c>
@@ -3799,7 +3800,7 @@
       </c>
     </row>
     <row r="57" spans="4:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="100"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="11" t="s">
         <v>8</v>
       </c>
@@ -3832,7 +3833,7 @@
       </c>
     </row>
     <row r="58" spans="4:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="102"/>
+      <c r="D58" s="103"/>
       <c r="E58" s="26" t="s">
         <v>21</v>
       </c>
@@ -3894,34 +3895,6 @@
     <row r="70" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="D52:D58"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="D27:D35"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="N36:N40"/>
-    <mergeCell ref="J44:J48"/>
-    <mergeCell ref="K44:K48"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="M44:M48"/>
-    <mergeCell ref="N44:N48"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="M12:M16"/>
-    <mergeCell ref="N12:N16"/>
     <mergeCell ref="J52:J55"/>
     <mergeCell ref="K52:K55"/>
     <mergeCell ref="L52:L55"/>
@@ -3930,11 +3903,41 @@
     <mergeCell ref="K27:K32"/>
     <mergeCell ref="L27:L32"/>
     <mergeCell ref="M27:M32"/>
-    <mergeCell ref="N27:N32"/>
     <mergeCell ref="J36:J40"/>
     <mergeCell ref="K36:K40"/>
     <mergeCell ref="L36:L40"/>
     <mergeCell ref="M36:M40"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="M12:M16"/>
+    <mergeCell ref="N12:N16"/>
+    <mergeCell ref="N27:N32"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="K44:K48"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M44:M48"/>
+    <mergeCell ref="N44:N48"/>
+    <mergeCell ref="D52:D58"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="J12:J16"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="D3:D11"/>
@@ -3942,8 +3945,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="L5:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3967,43 +3968,43 @@
   <sheetData>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="4:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109" t="s">
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="104"/>
-      <c r="E7" s="112" t="s">
+      <c r="D7" s="128"/>
+      <c r="E7" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="113"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="95" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="96"/>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="113"/>
+      <c r="J7" s="137"/>
       <c r="K7" s="95" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="96"/>
     </row>
     <row r="8" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="105"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="64" t="s">
         <v>0</v>
       </c>
@@ -4250,10 +4251,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825C9D7C-0957-44CE-9979-7AF0E0FD46F9}">
-  <dimension ref="C2:Q114"/>
+  <dimension ref="C2:W114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4266,55 +4267,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
       <c r="L2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="115" t="s">
+      <c r="M2" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
     </row>
     <row r="3" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D3" s="34"/>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="124"/>
+      <c r="H3" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="117"/>
+      <c r="I3" s="149"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
       <c r="L3" s="42"/>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="76" t="s">
+      <c r="N3" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="76" t="s">
+      <c r="O3" s="124"/>
+      <c r="P3" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="117"/>
+      <c r="Q3" s="149"/>
     </row>
     <row r="4" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="34"/>
-      <c r="E4" s="116"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4330,7 +4331,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="36"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="116"/>
+      <c r="M4" s="148"/>
       <c r="N4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4345,7 +4346,7 @@
       </c>
     </row>
     <row r="5" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="139" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -4365,7 +4366,7 @@
       </c>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="118" t="s">
+      <c r="L5" s="139" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="12" t="s">
@@ -4385,7 +4386,7 @@
       </c>
     </row>
     <row r="6" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D6" s="119"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
@@ -4403,7 +4404,7 @@
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="145"/>
+      <c r="L6" s="140"/>
       <c r="M6" s="11" t="s">
         <v>10</v>
       </c>
@@ -4421,7 +4422,7 @@
       </c>
     </row>
     <row r="7" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="119"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="11" t="s">
         <v>5</v>
       </c>
@@ -4439,7 +4440,7 @@
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="145"/>
+      <c r="L7" s="140"/>
       <c r="M7" s="11" t="s">
         <v>4</v>
       </c>
@@ -4457,7 +4458,7 @@
       </c>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D8" s="119"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
@@ -4475,7 +4476,7 @@
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="145"/>
+      <c r="L8" s="140"/>
       <c r="M8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4493,7 +4494,7 @@
       </c>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="119"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
@@ -4511,7 +4512,7 @@
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="38"/>
-      <c r="L9" s="145"/>
+      <c r="L9" s="140"/>
       <c r="M9" s="11" t="s">
         <v>6</v>
       </c>
@@ -4529,25 +4530,25 @@
       </c>
     </row>
     <row r="10" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="119"/>
-      <c r="E10" s="122" t="s">
+      <c r="D10" s="153"/>
+      <c r="E10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="70">
         <v>0.49038461538461497</v>
       </c>
-      <c r="G10" s="124">
+      <c r="G10" s="71">
         <v>0.64150943396226401</v>
       </c>
-      <c r="H10" s="123">
+      <c r="H10" s="70">
         <v>0.55371900826446196</v>
       </c>
-      <c r="I10" s="125">
+      <c r="I10" s="72">
         <v>0.63207547169811296</v>
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="38"/>
-      <c r="L10" s="145"/>
+      <c r="L10" s="140"/>
       <c r="M10" s="11" t="s">
         <v>7</v>
       </c>
@@ -4565,81 +4566,81 @@
       </c>
     </row>
     <row r="11" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="119"/>
-      <c r="E11" s="134" t="s">
+      <c r="D11" s="153"/>
+      <c r="E11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="77">
         <v>0.479106242629185</v>
       </c>
-      <c r="G11" s="136">
+      <c r="G11" s="78">
         <v>0.48450300540741198</v>
       </c>
-      <c r="H11" s="135">
+      <c r="H11" s="77">
         <v>0.54088447518107097</v>
       </c>
-      <c r="I11" s="137">
+      <c r="I11" s="79">
         <v>0.545626494000789</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="122" t="s">
+      <c r="L11" s="140"/>
+      <c r="M11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="123">
+      <c r="N11" s="70">
         <v>1</v>
       </c>
-      <c r="O11" s="124">
+      <c r="O11" s="71">
         <v>0.875</v>
       </c>
-      <c r="P11" s="123">
+      <c r="P11" s="70">
         <v>0.88235294117647001</v>
       </c>
-      <c r="Q11" s="125">
+      <c r="Q11" s="72">
         <v>0.9375</v>
       </c>
     </row>
     <row r="12" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="126"/>
-      <c r="E12" s="129" t="s">
+      <c r="D12" s="154"/>
+      <c r="E12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="130">
+      <c r="F12" s="142">
         <v>0.47931219774314798</v>
       </c>
-      <c r="G12" s="131"/>
-      <c r="H12" s="130">
+      <c r="G12" s="143"/>
+      <c r="H12" s="142">
         <v>0.54486835034927406</v>
       </c>
-      <c r="I12" s="132"/>
+      <c r="I12" s="144"/>
       <c r="J12" s="37"/>
       <c r="K12" s="38"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="134" t="s">
+      <c r="L12" s="140"/>
+      <c r="M12" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="135">
+      <c r="N12" s="77">
         <v>0.65150928008070796</v>
       </c>
-      <c r="O12" s="136">
+      <c r="O12" s="78">
         <v>0.59440253374076801</v>
       </c>
-      <c r="P12" s="135">
+      <c r="P12" s="77">
         <v>0.77092474012002599</v>
       </c>
-      <c r="Q12" s="137">
+      <c r="Q12" s="79">
         <v>0.77341004583651596</v>
       </c>
     </row>
     <row r="13" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="127" t="s">
+      <c r="E13" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="128">
+      <c r="F13" s="74">
         <v>0.75806451612903203</v>
       </c>
       <c r="G13" s="2">
@@ -4653,45 +4654,45 @@
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="129" t="s">
+      <c r="L13" s="141"/>
+      <c r="M13" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="130">
+      <c r="N13" s="142">
         <v>0.63432835820895495</v>
       </c>
-      <c r="O13" s="131"/>
-      <c r="P13" s="130">
+      <c r="O13" s="143"/>
+      <c r="P13" s="142">
         <v>0.74626865671641796</v>
       </c>
-      <c r="Q13" s="132"/>
+      <c r="Q13" s="144"/>
     </row>
     <row r="14" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="121"/>
-      <c r="E14" s="138" t="s">
+      <c r="D14" s="145"/>
+      <c r="E14" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="139">
+      <c r="F14" s="81">
         <v>0.69131832797427595</v>
       </c>
-      <c r="G14" s="124">
+      <c r="G14" s="71">
         <v>0.36440677966101598</v>
       </c>
-      <c r="H14" s="123">
+      <c r="H14" s="70">
         <v>0.63283582089552204</v>
       </c>
-      <c r="I14" s="125">
+      <c r="I14" s="72">
         <v>0.35932203389830503</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
-      <c r="L14" s="118" t="s">
+      <c r="L14" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="127" t="s">
+      <c r="M14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="128">
+      <c r="N14" s="74">
         <v>0.797752808988764</v>
       </c>
       <c r="O14" s="2">
@@ -4705,155 +4706,155 @@
       </c>
     </row>
     <row r="15" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="121"/>
-      <c r="E15" s="140" t="s">
+      <c r="D15" s="145"/>
+      <c r="E15" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="83">
         <v>0.72469142205165404</v>
       </c>
-      <c r="G15" s="136">
+      <c r="G15" s="78">
         <v>0.64443785088479599</v>
       </c>
-      <c r="H15" s="135">
+      <c r="H15" s="77">
         <v>0.69256469943858601</v>
       </c>
-      <c r="I15" s="137">
+      <c r="I15" s="79">
         <v>0.63127392017495898</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="138" t="s">
+      <c r="L15" s="140"/>
+      <c r="M15" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="139">
+      <c r="N15" s="81">
         <v>0.88888888888888795</v>
       </c>
-      <c r="O15" s="124">
+      <c r="O15" s="71">
         <v>0.68965517241379304</v>
       </c>
-      <c r="P15" s="123">
+      <c r="P15" s="70">
         <v>0.8</v>
       </c>
-      <c r="Q15" s="125">
+      <c r="Q15" s="72">
         <v>0.75862068965517204</v>
       </c>
     </row>
     <row r="16" spans="4:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="133"/>
-      <c r="E16" s="129" t="s">
+      <c r="D16" s="146"/>
+      <c r="E16" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="130">
+      <c r="F16" s="142">
         <v>0.74691026329930099</v>
       </c>
-      <c r="G16" s="131"/>
-      <c r="H16" s="130">
+      <c r="G16" s="143"/>
+      <c r="H16" s="142">
         <v>0.730789897904352</v>
       </c>
-      <c r="I16" s="132"/>
+      <c r="I16" s="144"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="140" t="s">
+      <c r="L16" s="140"/>
+      <c r="M16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="141">
+      <c r="N16" s="83">
         <v>0.84332084893882597</v>
       </c>
-      <c r="O16" s="136">
+      <c r="O16" s="78">
         <v>0.81193284936479104</v>
       </c>
-      <c r="P16" s="135">
+      <c r="P16" s="77">
         <v>0.81139240506329102</v>
       </c>
-      <c r="Q16" s="137">
+      <c r="Q16" s="79">
         <v>0.806941923774954</v>
       </c>
     </row>
-    <row r="17" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="43"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="129" t="s">
+      <c r="L17" s="141"/>
+      <c r="M17" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="130">
+      <c r="N17" s="142">
         <v>0.82835820895522305</v>
       </c>
-      <c r="O17" s="131"/>
-      <c r="P17" s="130">
+      <c r="O17" s="143"/>
+      <c r="P17" s="142">
         <v>0.81343283582089498</v>
       </c>
-      <c r="Q17" s="132"/>
-    </row>
-    <row r="18" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="144"/>
+    </row>
+    <row r="18" spans="4:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D18" s="43"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="144"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="M18" s="84"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="86"/>
+    </row>
+    <row r="19" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D19" s="43"/>
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="144"/>
-    </row>
-    <row r="20" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="84"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="86"/>
+    </row>
+    <row r="20" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="43"/>
       <c r="F20" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="N20" s="120" t="s">
+      <c r="N20" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120"/>
-    </row>
-    <row r="21" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+    </row>
+    <row r="21" spans="4:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D21" s="43"/>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="76" t="s">
+      <c r="G21" s="124"/>
+      <c r="H21" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="117"/>
+      <c r="I21" s="149"/>
       <c r="J21" s="35"/>
       <c r="K21" s="36"/>
       <c r="L21" s="41"/>
-      <c r="M21" s="79" t="s">
+      <c r="M21" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="77"/>
-      <c r="P21" s="76" t="s">
+      <c r="O21" s="124"/>
+      <c r="P21" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Q21" s="117"/>
-    </row>
-    <row r="22" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="149"/>
+    </row>
+    <row r="22" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="43"/>
-      <c r="E22" s="70"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="13" t="s">
         <v>0</v>
       </c>
@@ -4868,7 +4869,7 @@
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
-      <c r="M22" s="70"/>
+      <c r="M22" s="118"/>
       <c r="N22" s="13" t="s">
         <v>0</v>
       </c>
@@ -4882,8 +4883,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="118" t="s">
+    <row r="23" spans="4:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="139" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -4903,7 +4904,7 @@
       </c>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
-      <c r="L23" s="118" t="s">
+      <c r="L23" s="139" t="s">
         <v>29</v>
       </c>
       <c r="M23" s="12" t="s">
@@ -4922,8 +4923,8 @@
         <v>0.43272727272727202</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="145"/>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D24" s="140"/>
       <c r="E24" s="11" t="s">
         <v>4</v>
       </c>
@@ -4941,7 +4942,7 @@
       </c>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
-      <c r="L24" s="145"/>
+      <c r="L24" s="140"/>
       <c r="M24" s="11" t="s">
         <v>12</v>
       </c>
@@ -4958,8 +4959,8 @@
         <v>0.36758893280632399</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="145"/>
+    <row r="25" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D25" s="140"/>
       <c r="E25" s="11" t="s">
         <v>5</v>
       </c>
@@ -4977,7 +4978,7 @@
       </c>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="145"/>
+      <c r="L25" s="140"/>
       <c r="M25" s="11" t="s">
         <v>13</v>
       </c>
@@ -4994,8 +4995,8 @@
         <v>0.57111597374179401</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="145"/>
+    <row r="26" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D26" s="140"/>
       <c r="E26" s="11" t="s">
         <v>6</v>
       </c>
@@ -5013,7 +5014,7 @@
       </c>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="145"/>
+      <c r="L26" s="140"/>
       <c r="M26" s="11" t="s">
         <v>6</v>
       </c>
@@ -5030,8 +5031,8 @@
         <v>5.4421768707482901E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="145"/>
+    <row r="27" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D27" s="140"/>
       <c r="E27" s="11" t="s">
         <v>7</v>
       </c>
@@ -5049,7 +5050,7 @@
       </c>
       <c r="J27" s="37"/>
       <c r="K27" s="38"/>
-      <c r="L27" s="145"/>
+      <c r="L27" s="140"/>
       <c r="M27" s="11" t="s">
         <v>7</v>
       </c>
@@ -5066,8 +5067,8 @@
         <v>0.51529411764705801</v>
       </c>
     </row>
-    <row r="28" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="145"/>
+    <row r="28" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="140"/>
       <c r="E28" s="11" t="s">
         <v>8</v>
       </c>
@@ -5085,113 +5086,129 @@
       </c>
       <c r="J28" s="37"/>
       <c r="K28" s="38"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="122" t="s">
+      <c r="L28" s="140"/>
+      <c r="M28" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="123">
+      <c r="N28" s="70">
         <v>0.50599520383692997</v>
       </c>
-      <c r="O28" s="124">
+      <c r="O28" s="71">
         <v>0.78438661710037105</v>
       </c>
-      <c r="P28" s="123">
+      <c r="P28" s="70">
         <v>0.59450171821305797</v>
       </c>
-      <c r="Q28" s="125">
+      <c r="Q28" s="72">
         <v>0.64312267657992495</v>
       </c>
     </row>
-    <row r="29" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="145"/>
-      <c r="E29" s="122" t="s">
+    <row r="29" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="140"/>
+      <c r="E29" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="70">
         <v>0.95744680851063801</v>
       </c>
-      <c r="G29" s="124">
+      <c r="G29" s="71">
         <v>0.9</v>
       </c>
-      <c r="H29" s="123">
+      <c r="H29" s="70">
         <v>0.95192307692307598</v>
       </c>
-      <c r="I29" s="125">
+      <c r="I29" s="72">
         <v>0.99</v>
       </c>
       <c r="J29" s="37"/>
       <c r="K29" s="38"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="134" t="s">
+      <c r="L29" s="140"/>
+      <c r="M29" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="135">
+      <c r="N29" s="77">
         <v>0.38350360000150702</v>
       </c>
-      <c r="O29" s="136">
+      <c r="O29" s="78">
         <v>0.39765544032793698</v>
       </c>
-      <c r="P29" s="135">
+      <c r="P29" s="77">
         <v>0.46451020179781599</v>
       </c>
-      <c r="Q29" s="137">
+      <c r="Q29" s="79">
         <v>0.43071179036830898</v>
       </c>
-    </row>
-    <row r="30" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="145"/>
-      <c r="E30" s="134" t="s">
+      <c r="T29" s="155">
+        <f>AVERAGE(F31,N30,F49,N48,F12,N13)</f>
+        <v>0.61899788515623499</v>
+      </c>
+      <c r="U29" s="155">
+        <f>AVERAGE(H12,P13,H31,P30,H49,P48)</f>
+        <v>0.68530837494106722</v>
+      </c>
+      <c r="V29" s="155">
+        <f>AVERAGE(F12,N13,N30,F49,N48)</f>
+        <v>0.54965460504462504</v>
+      </c>
+      <c r="W29" s="155">
+        <f>AVERAGE(H12,P13,P30,H49,P48)</f>
+        <v>0.62551290707213769</v>
+      </c>
+    </row>
+    <row r="30" spans="4:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="140"/>
+      <c r="E30" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="135">
+      <c r="F30" s="77">
         <v>0.96647138523007403</v>
       </c>
-      <c r="G30" s="136">
+      <c r="G30" s="78">
         <v>0.96571428571428497</v>
       </c>
-      <c r="H30" s="135">
+      <c r="H30" s="77">
         <v>0.98454250814544897</v>
       </c>
-      <c r="I30" s="137">
+      <c r="I30" s="79">
         <v>0.98428571428571399</v>
       </c>
       <c r="J30" s="39"/>
       <c r="K30" s="39"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="129" t="s">
+      <c r="L30" s="141"/>
+      <c r="M30" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="130">
+      <c r="N30" s="142">
         <v>0.44852135815991201</v>
       </c>
-      <c r="O30" s="131"/>
-      <c r="P30" s="130">
+      <c r="O30" s="143"/>
+      <c r="P30" s="142">
         <v>0.478094194961664</v>
       </c>
-      <c r="Q30" s="132"/>
-    </row>
-    <row r="31" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="146"/>
-      <c r="E31" s="129" t="s">
+      <c r="Q30" s="144"/>
+    </row>
+    <row r="31" spans="4:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="141"/>
+      <c r="E31" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="130">
+      <c r="F31" s="142">
         <v>0.96571428571428497</v>
       </c>
-      <c r="G31" s="131"/>
-      <c r="H31" s="130">
+      <c r="G31" s="143"/>
+      <c r="H31" s="142">
         <v>0.98428571428571399</v>
       </c>
-      <c r="I31" s="132"/>
+      <c r="I31" s="144"/>
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="118" t="s">
+      <c r="L31" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="127" t="s">
+      <c r="M31" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="128">
+      <c r="N31" s="74">
         <v>0.64110671936758801</v>
       </c>
       <c r="O31" s="2">
@@ -5204,14 +5221,14 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="32" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="118" t="s">
+    <row r="32" spans="4:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="127" t="s">
+      <c r="E32" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="128">
+      <c r="F32" s="74">
         <v>0.99002493765585997</v>
       </c>
       <c r="G32" s="2">
@@ -5225,104 +5242,104 @@
       </c>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="138" t="s">
+      <c r="L32" s="140"/>
+      <c r="M32" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="139">
+      <c r="N32" s="81">
         <v>0.66310160427807396</v>
       </c>
-      <c r="O32" s="124">
+      <c r="O32" s="71">
         <v>0.45036319612590803</v>
       </c>
-      <c r="P32" s="123">
+      <c r="P32" s="70">
         <v>0.66045272969374103</v>
       </c>
-      <c r="Q32" s="125">
+      <c r="Q32" s="72">
         <v>0.60048426150121004</v>
       </c>
     </row>
     <row r="33" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="145"/>
-      <c r="E33" s="138" t="s">
+      <c r="D33" s="140"/>
+      <c r="E33" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="139">
+      <c r="F33" s="81">
         <v>0.98996655518394605</v>
       </c>
-      <c r="G33" s="124">
+      <c r="G33" s="71">
         <v>0.98666666666666603</v>
       </c>
-      <c r="H33" s="123">
+      <c r="H33" s="70">
         <v>0.96632996632996604</v>
       </c>
-      <c r="I33" s="125">
+      <c r="I33" s="72">
         <v>0.956666666666666</v>
       </c>
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="140" t="s">
+      <c r="L33" s="140"/>
+      <c r="M33" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="141">
+      <c r="N33" s="83">
         <v>0.65210416182283104</v>
       </c>
-      <c r="O33" s="136">
+      <c r="O33" s="78">
         <v>0.63068159806295399</v>
       </c>
-      <c r="P33" s="135">
+      <c r="P33" s="77">
         <v>0.67673799275384705</v>
       </c>
-      <c r="Q33" s="137">
+      <c r="Q33" s="79">
         <v>0.67274213075060496</v>
       </c>
     </row>
     <row r="34" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="145"/>
-      <c r="E34" s="140" t="s">
+      <c r="D34" s="140"/>
+      <c r="E34" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="141">
+      <c r="F34" s="83">
         <v>0.98999574641990296</v>
       </c>
-      <c r="G34" s="136">
+      <c r="G34" s="78">
         <v>0.98958333333333304</v>
       </c>
-      <c r="H34" s="135">
+      <c r="H34" s="77">
         <v>0.96703595090691796</v>
       </c>
-      <c r="I34" s="137">
+      <c r="I34" s="79">
         <v>0.96583333333333299</v>
       </c>
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="129" t="s">
+      <c r="L34" s="141"/>
+      <c r="M34" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="N34" s="130">
+      <c r="N34" s="142">
         <v>0.647864184008762</v>
       </c>
-      <c r="O34" s="131"/>
-      <c r="P34" s="130">
+      <c r="O34" s="143"/>
+      <c r="P34" s="142">
         <v>0.67962760131434796</v>
       </c>
-      <c r="Q34" s="132"/>
+      <c r="Q34" s="144"/>
     </row>
     <row r="35" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="146"/>
-      <c r="E35" s="129" t="s">
+      <c r="D35" s="141"/>
+      <c r="E35" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="130">
+      <c r="F35" s="142">
         <v>0.99</v>
       </c>
-      <c r="G35" s="131"/>
-      <c r="H35" s="130">
+      <c r="G35" s="143"/>
+      <c r="H35" s="142">
         <v>0.96714285714285697</v>
       </c>
-      <c r="I35" s="132"/>
+      <c r="I35" s="144"/>
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
       <c r="L35" s="41"/>
@@ -5349,35 +5366,35 @@
       </c>
     </row>
     <row r="38" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="153" t="s">
+      <c r="E38" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F38" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="77"/>
-      <c r="H38" s="76" t="s">
+      <c r="G38" s="124"/>
+      <c r="H38" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="117"/>
+      <c r="I38" s="149"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="153" t="s">
+      <c r="L38" s="87"/>
+      <c r="M38" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="N38" s="76" t="s">
+      <c r="N38" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="77"/>
-      <c r="P38" s="76" t="s">
+      <c r="O38" s="124"/>
+      <c r="P38" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Q38" s="117"/>
+      <c r="Q38" s="149"/>
     </row>
     <row r="39" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="147"/>
-      <c r="E39" s="154"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="151"/>
       <c r="F39" s="13" t="s">
         <v>0</v>
       </c>
@@ -5392,8 +5409,8 @@
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="154"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="151"/>
       <c r="N39" s="13" t="s">
         <v>0</v>
       </c>
@@ -5408,10 +5425,10 @@
       </c>
     </row>
     <row r="40" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="118" t="s">
+      <c r="D40" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="148" t="s">
+      <c r="E40" s="88" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="7">
@@ -5428,10 +5445,10 @@
       </c>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
-      <c r="L40" s="118" t="s">
+      <c r="L40" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="148" t="s">
+      <c r="M40" s="88" t="s">
         <v>2</v>
       </c>
       <c r="N40" s="7">
@@ -5448,8 +5465,8 @@
       </c>
     </row>
     <row r="41" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D41" s="145"/>
-      <c r="E41" s="149" t="s">
+      <c r="D41" s="140"/>
+      <c r="E41" s="89" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="4">
@@ -5466,8 +5483,8 @@
       </c>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="149" t="s">
+      <c r="L41" s="140"/>
+      <c r="M41" s="89" t="s">
         <v>4</v>
       </c>
       <c r="N41" s="4">
@@ -5484,8 +5501,8 @@
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D42" s="145"/>
-      <c r="E42" s="149" t="s">
+      <c r="D42" s="140"/>
+      <c r="E42" s="89" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="4">
@@ -5502,8 +5519,8 @@
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="38"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="149" t="s">
+      <c r="L42" s="140"/>
+      <c r="M42" s="89" t="s">
         <v>5</v>
       </c>
       <c r="N42" s="4">
@@ -5520,8 +5537,8 @@
       </c>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D43" s="145"/>
-      <c r="E43" s="149" t="s">
+      <c r="D43" s="140"/>
+      <c r="E43" s="89" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="4">
@@ -5538,8 +5555,8 @@
       </c>
       <c r="J43" s="37"/>
       <c r="K43" s="38"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="149" t="s">
+      <c r="L43" s="140"/>
+      <c r="M43" s="89" t="s">
         <v>6</v>
       </c>
       <c r="N43" s="4">
@@ -5556,8 +5573,8 @@
       </c>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D44" s="145"/>
-      <c r="E44" s="149" t="s">
+      <c r="D44" s="140"/>
+      <c r="E44" s="89" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="4">
@@ -5574,8 +5591,8 @@
       </c>
       <c r="J44" s="37"/>
       <c r="K44" s="38"/>
-      <c r="L44" s="145"/>
-      <c r="M44" s="149" t="s">
+      <c r="L44" s="140"/>
+      <c r="M44" s="89" t="s">
         <v>7</v>
       </c>
       <c r="N44" s="4">
@@ -5592,8 +5609,8 @@
       </c>
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D45" s="145"/>
-      <c r="E45" s="149" t="s">
+      <c r="D45" s="140"/>
+      <c r="E45" s="89" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="4">
@@ -5610,8 +5627,8 @@
       </c>
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="149" t="s">
+      <c r="L45" s="140"/>
+      <c r="M45" s="89" t="s">
         <v>8</v>
       </c>
       <c r="N45" s="4">
@@ -5628,8 +5645,8 @@
       </c>
     </row>
     <row r="46" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="145"/>
-      <c r="E46" s="149" t="s">
+      <c r="D46" s="140"/>
+      <c r="E46" s="89" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="4">
@@ -5646,113 +5663,113 @@
       </c>
       <c r="J46" s="39"/>
       <c r="K46" s="39"/>
-      <c r="L46" s="145"/>
-      <c r="M46" s="150" t="s">
+      <c r="L46" s="140"/>
+      <c r="M46" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="123">
+      <c r="N46" s="70">
         <v>0.58333333333333304</v>
       </c>
-      <c r="O46" s="124">
+      <c r="O46" s="71">
         <v>0.46666666666666601</v>
       </c>
-      <c r="P46" s="123">
+      <c r="P46" s="70">
         <v>0.66666666666666596</v>
       </c>
-      <c r="Q46" s="125">
+      <c r="Q46" s="72">
         <v>0.93333333333333302</v>
       </c>
     </row>
     <row r="47" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="145"/>
-      <c r="E47" s="150" t="s">
+      <c r="D47" s="140"/>
+      <c r="E47" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="123">
+      <c r="F47" s="70">
         <v>0.69565217391304301</v>
       </c>
-      <c r="G47" s="124">
+      <c r="G47" s="71">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H47" s="123">
+      <c r="H47" s="70">
         <v>0.76923076923076905</v>
       </c>
-      <c r="I47" s="125">
+      <c r="I47" s="72">
         <v>0.83333333333333304</v>
       </c>
       <c r="J47" s="39"/>
       <c r="K47" s="39"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="151" t="s">
+      <c r="L47" s="140"/>
+      <c r="M47" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="135">
+      <c r="N47" s="77">
         <v>0.56138537404248101</v>
       </c>
-      <c r="O47" s="136">
+      <c r="O47" s="78">
         <v>0.55729166666666596</v>
       </c>
-      <c r="P47" s="135">
+      <c r="P47" s="77">
         <v>0.65505732943015105</v>
       </c>
-      <c r="Q47" s="137">
+      <c r="Q47" s="79">
         <v>0.63802083333333304</v>
       </c>
     </row>
     <row r="48" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="145"/>
-      <c r="E48" s="151" t="s">
+      <c r="D48" s="140"/>
+      <c r="E48" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="135">
+      <c r="F48" s="77">
         <v>0.56138537404248101</v>
       </c>
-      <c r="G48" s="136">
+      <c r="G48" s="78">
         <v>0.55729166666666596</v>
       </c>
-      <c r="H48" s="135">
+      <c r="H48" s="77">
         <v>0.65505732943015105</v>
       </c>
-      <c r="I48" s="137">
+      <c r="I48" s="79">
         <v>0.63802083333333304</v>
       </c>
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="152" t="s">
+      <c r="L48" s="141"/>
+      <c r="M48" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="N48" s="130">
+      <c r="N48" s="142">
         <v>0.61666666666666603</v>
       </c>
-      <c r="O48" s="131"/>
-      <c r="P48" s="130">
+      <c r="O48" s="143"/>
+      <c r="P48" s="142">
         <v>0.7</v>
       </c>
-      <c r="Q48" s="132"/>
+      <c r="Q48" s="144"/>
     </row>
     <row r="49" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="146"/>
-      <c r="E49" s="152" t="s">
+      <c r="D49" s="141"/>
+      <c r="E49" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="130">
+      <c r="F49" s="142">
         <v>0.56944444444444398</v>
       </c>
-      <c r="G49" s="131"/>
-      <c r="H49" s="130">
+      <c r="G49" s="143"/>
+      <c r="H49" s="142">
         <v>0.65833333333333299</v>
       </c>
-      <c r="I49" s="132"/>
+      <c r="I49" s="144"/>
       <c r="J49" s="39"/>
       <c r="K49" s="39"/>
-      <c r="L49" s="118" t="s">
+      <c r="L49" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="M49" s="127" t="s">
+      <c r="M49" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="128">
+      <c r="N49" s="74">
         <v>0.57317073170731703</v>
       </c>
       <c r="O49" s="2">
@@ -5766,13 +5783,13 @@
       </c>
     </row>
     <row r="50" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="118" t="s">
+      <c r="D50" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="127" t="s">
+      <c r="E50" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="128">
+      <c r="F50" s="74">
         <v>0.755868544600939</v>
       </c>
       <c r="G50" s="2">
@@ -5786,105 +5803,105 @@
       </c>
       <c r="J50" s="39"/>
       <c r="K50" s="39"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="138" t="s">
+      <c r="L50" s="140"/>
+      <c r="M50" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="N50" s="139">
+      <c r="N50" s="81">
         <v>0.65789473684210498</v>
       </c>
-      <c r="O50" s="124">
+      <c r="O50" s="71">
         <v>0.41666666666666602</v>
       </c>
-      <c r="P50" s="123">
+      <c r="P50" s="70">
         <v>0.70212765957446799</v>
       </c>
-      <c r="Q50" s="125">
+      <c r="Q50" s="72">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="145"/>
-      <c r="E51" s="138" t="s">
+      <c r="D51" s="140"/>
+      <c r="E51" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="139">
+      <c r="F51" s="81">
         <v>0.78911564625850295</v>
       </c>
-      <c r="G51" s="124">
+      <c r="G51" s="71">
         <v>0.69047619047619002</v>
       </c>
-      <c r="H51" s="123">
+      <c r="H51" s="70">
         <v>0.69411764705882295</v>
       </c>
-      <c r="I51" s="125">
+      <c r="I51" s="72">
         <v>0.702380952380952</v>
       </c>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
-      <c r="L51" s="145"/>
-      <c r="M51" s="134" t="s">
+      <c r="L51" s="140"/>
+      <c r="M51" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="N51" s="135">
+      <c r="N51" s="77">
         <v>0.56138537404248101</v>
       </c>
-      <c r="O51" s="136">
+      <c r="O51" s="78">
         <v>0.55729166666666596</v>
       </c>
-      <c r="P51" s="135">
+      <c r="P51" s="77">
         <v>0.65505732943015105</v>
       </c>
-      <c r="Q51" s="137">
+      <c r="Q51" s="79">
         <v>0.63802083333333304</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="145"/>
-      <c r="E52" s="134" t="s">
+      <c r="D52" s="140"/>
+      <c r="E52" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="135">
+      <c r="F52" s="77">
         <v>0.56138537404248101</v>
       </c>
-      <c r="G52" s="136">
+      <c r="G52" s="78">
         <v>0.55729166666666596</v>
       </c>
-      <c r="H52" s="135">
+      <c r="H52" s="77">
         <v>0.65505732943015105</v>
       </c>
-      <c r="I52" s="137">
+      <c r="I52" s="79">
         <v>0.63802083333333304</v>
       </c>
       <c r="J52" s="35"/>
       <c r="K52" s="36"/>
-      <c r="L52" s="146"/>
-      <c r="M52" s="129" t="s">
+      <c r="L52" s="141"/>
+      <c r="M52" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="N52" s="130">
+      <c r="N52" s="142">
         <v>0.6</v>
       </c>
-      <c r="O52" s="131"/>
-      <c r="P52" s="130">
+      <c r="O52" s="143"/>
+      <c r="P52" s="142">
         <v>0.65833333333333299</v>
       </c>
-      <c r="Q52" s="132"/>
+      <c r="Q52" s="144"/>
     </row>
     <row r="53" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="40"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="129" t="s">
+      <c r="D53" s="141"/>
+      <c r="E53" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="130">
+      <c r="F53" s="142">
         <v>0.76944444444444404</v>
       </c>
-      <c r="G53" s="131"/>
-      <c r="H53" s="130">
+      <c r="G53" s="143"/>
+      <c r="H53" s="142">
         <v>0.71666666666666601</v>
       </c>
-      <c r="I53" s="132"/>
+      <c r="I53" s="144"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="37"/>
@@ -5910,13 +5927,13 @@
     </row>
     <row r="56" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="40"/>
-      <c r="D56" s="147"/>
-      <c r="F56" s="120" t="s">
+      <c r="D56" s="87"/>
+      <c r="F56" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
       <c r="J56" s="37"/>
       <c r="K56" s="37"/>
       <c r="L56" s="38"/>
@@ -5925,18 +5942,18 @@
     </row>
     <row r="57" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C57" s="40"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="153" t="s">
+      <c r="D57" s="87"/>
+      <c r="E57" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="76" t="s">
+      <c r="F57" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="77"/>
-      <c r="H57" s="76" t="s">
+      <c r="G57" s="124"/>
+      <c r="H57" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="117"/>
+      <c r="I57" s="149"/>
       <c r="J57" s="37"/>
       <c r="K57" s="38"/>
       <c r="L57" s="38"/>
@@ -5945,8 +5962,8 @@
     </row>
     <row r="58" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="40"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="154"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="151"/>
       <c r="F58" s="13" t="s">
         <v>0</v>
       </c>
@@ -5967,10 +5984,10 @@
     </row>
     <row r="59" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="40"/>
-      <c r="D59" s="118" t="s">
+      <c r="D59" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="148" t="s">
+      <c r="E59" s="88" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="7">
@@ -5993,8 +6010,8 @@
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C60" s="40"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="149" t="s">
+      <c r="D60" s="140"/>
+      <c r="E60" s="89" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="4">
@@ -6017,8 +6034,8 @@
     </row>
     <row r="61" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C61" s="40"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="149" t="s">
+      <c r="D61" s="140"/>
+      <c r="E61" s="89" t="s">
         <v>5</v>
       </c>
       <c r="F61" s="4">
@@ -6041,8 +6058,8 @@
     </row>
     <row r="62" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C62" s="40"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="149" t="s">
+      <c r="D62" s="140"/>
+      <c r="E62" s="89" t="s">
         <v>6</v>
       </c>
       <c r="F62" s="4">
@@ -6065,8 +6082,8 @@
     </row>
     <row r="63" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C63" s="40"/>
-      <c r="D63" s="145"/>
-      <c r="E63" s="149" t="s">
+      <c r="D63" s="140"/>
+      <c r="E63" s="89" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="4">
@@ -6089,20 +6106,20 @@
     </row>
     <row r="64" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="40"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="150" t="s">
+      <c r="D64" s="140"/>
+      <c r="E64" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="123">
+      <c r="F64" s="70">
         <v>0.57554786620530496</v>
       </c>
-      <c r="G64" s="124">
+      <c r="G64" s="71">
         <v>0.665333333333333</v>
       </c>
-      <c r="H64" s="123">
+      <c r="H64" s="70">
         <v>0.62073170731707294</v>
       </c>
-      <c r="I64" s="125">
+      <c r="I64" s="72">
         <v>0.67866666666666597</v>
       </c>
       <c r="J64" s="39"/>
@@ -6113,20 +6130,20 @@
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" s="40"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="151" t="s">
+      <c r="D65" s="140"/>
+      <c r="E65" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="135">
+      <c r="F65" s="77">
         <v>0.56138537404248101</v>
       </c>
-      <c r="G65" s="136">
+      <c r="G65" s="78">
         <v>0.55729166666666596</v>
       </c>
-      <c r="H65" s="135">
+      <c r="H65" s="77">
         <v>0.65505732943015105</v>
       </c>
-      <c r="I65" s="137">
+      <c r="I65" s="79">
         <v>0.63802083333333304</v>
       </c>
       <c r="J65" s="39"/>
@@ -6137,18 +6154,18 @@
     </row>
     <row r="66" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="40"/>
-      <c r="D66" s="146"/>
-      <c r="E66" s="152" t="s">
+      <c r="D66" s="141"/>
+      <c r="E66" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="130">
+      <c r="F66" s="142">
         <v>0.59072478459199096</v>
       </c>
-      <c r="G66" s="131"/>
-      <c r="H66" s="130">
+      <c r="G66" s="143"/>
+      <c r="H66" s="142">
         <v>0.61175874303091704</v>
       </c>
-      <c r="I66" s="132"/>
+      <c r="I66" s="144"/>
       <c r="J66" s="39"/>
       <c r="K66" s="39"/>
       <c r="L66" s="36"/>
@@ -6157,13 +6174,13 @@
     </row>
     <row r="67" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C67" s="40"/>
-      <c r="D67" s="118" t="s">
+      <c r="D67" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="127" t="s">
+      <c r="E67" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="128">
+      <c r="F67" s="74">
         <v>0.73728306403351196</v>
       </c>
       <c r="G67" s="2">
@@ -6183,20 +6200,20 @@
     </row>
     <row r="68" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="40"/>
-      <c r="D68" s="145"/>
-      <c r="E68" s="138" t="s">
+      <c r="D68" s="140"/>
+      <c r="E68" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="139">
+      <c r="F68" s="81">
         <v>0.69881889763779503</v>
       </c>
-      <c r="G68" s="124">
+      <c r="G68" s="71">
         <v>0.54812146165723097</v>
       </c>
-      <c r="H68" s="123">
+      <c r="H68" s="70">
         <v>0.61958836053938904</v>
       </c>
-      <c r="I68" s="125">
+      <c r="I68" s="72">
         <v>0.449305198147195</v>
       </c>
       <c r="J68" s="35"/>
@@ -6207,20 +6224,20 @@
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C69" s="40"/>
-      <c r="D69" s="145"/>
-      <c r="E69" s="134" t="s">
+      <c r="D69" s="140"/>
+      <c r="E69" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="135">
+      <c r="F69" s="77">
         <v>0.56138537404248101</v>
       </c>
-      <c r="G69" s="136">
+      <c r="G69" s="78">
         <v>0.55729166666666596</v>
       </c>
-      <c r="H69" s="135">
+      <c r="H69" s="77">
         <v>0.65505732943015105</v>
       </c>
-      <c r="I69" s="137">
+      <c r="I69" s="79">
         <v>0.63802083333333304</v>
       </c>
       <c r="J69" s="37"/>
@@ -6231,18 +6248,18 @@
     </row>
     <row r="70" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70" s="40"/>
-      <c r="D70" s="146"/>
-      <c r="E70" s="129" t="s">
+      <c r="D70" s="141"/>
+      <c r="E70" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="130">
+      <c r="F70" s="142">
         <v>0.72523633374434804</v>
       </c>
-      <c r="G70" s="131"/>
-      <c r="H70" s="130">
+      <c r="G70" s="143"/>
+      <c r="H70" s="142">
         <v>0.66995478832716804</v>
       </c>
-      <c r="I70" s="132"/>
+      <c r="I70" s="144"/>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
       <c r="L70" s="37"/>
@@ -6558,17 +6575,45 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="L40:L48"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="D59:D66"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="L5:L13"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="F31:G31"/>
@@ -6582,49 +6627,21 @@
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="L23:L30"/>
     <mergeCell ref="L31:L34"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="L5:L13"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="L40:L48"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="H57:I57"/>
     <mergeCell ref="F56:I56"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
